--- a/AAII_Financials/Quarterly/PLYN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PLYN_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="92">
   <si>
     <t>PLYN</t>
   </si>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,56 +665,59 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -742,8 +745,11 @@
       <c r="K8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -771,8 +777,11 @@
       <c r="K9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -800,8 +809,11 @@
       <c r="K10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -813,8 +825,9 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -842,8 +855,11 @@
       <c r="K12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -871,8 +887,11 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -900,8 +919,11 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -929,8 +951,11 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -939,8 +964,9 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -968,8 +994,11 @@
       <c r="K17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -997,8 +1026,11 @@
       <c r="K18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1010,8 +1042,9 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1039,8 +1072,11 @@
       <c r="K20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1068,8 +1104,11 @@
       <c r="K21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1079,8 +1118,8 @@
       <c r="E22" s="3">
         <v>0</v>
       </c>
-      <c r="F22" s="3" t="s">
-        <v>4</v>
+      <c r="F22" s="3">
+        <v>0</v>
       </c>
       <c r="G22" s="3" t="s">
         <v>4</v>
@@ -1097,8 +1136,11 @@
       <c r="K22" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1126,8 +1168,11 @@
       <c r="K23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1155,8 +1200,11 @@
       <c r="K24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1184,8 +1232,11 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1213,8 +1264,11 @@
       <c r="K26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1242,8 +1296,11 @@
       <c r="K27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1271,8 +1328,11 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1300,8 +1360,11 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1329,8 +1392,11 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1358,8 +1424,11 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1387,8 +1456,11 @@
       <c r="K32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -1416,8 +1488,11 @@
       <c r="K33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1445,8 +1520,11 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -1474,42 +1552,48 @@
       <c r="K35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1521,8 +1605,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1534,8 +1619,9 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -1563,8 +1649,11 @@
       <c r="K41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1592,8 +1681,11 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1621,8 +1713,11 @@
       <c r="K43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1650,8 +1745,11 @@
       <c r="K44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1679,8 +1777,11 @@
       <c r="K45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -1708,8 +1809,11 @@
       <c r="K46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1737,8 +1841,11 @@
       <c r="K47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -1766,8 +1873,11 @@
       <c r="K48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1795,8 +1905,11 @@
       <c r="K49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1824,8 +1937,11 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1853,8 +1969,11 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -1882,8 +2001,11 @@
       <c r="K52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1911,8 +2033,11 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -1940,8 +2065,11 @@
       <c r="K54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1953,8 +2081,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1966,8 +2095,9 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -1992,11 +2122,14 @@
       <c r="J57" s="3">
         <v>0</v>
       </c>
-      <c r="K57" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K57" s="3">
+        <v>0</v>
+      </c>
+      <c r="L57" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2006,8 +2139,8 @@
       <c r="E58" s="3">
         <v>0</v>
       </c>
-      <c r="F58" s="3" t="s">
-        <v>4</v>
+      <c r="F58" s="3">
+        <v>0</v>
       </c>
       <c r="G58" s="3" t="s">
         <v>4</v>
@@ -2024,8 +2157,11 @@
       <c r="K58" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2033,7 +2169,7 @@
         <v>200</v>
       </c>
       <c r="E59" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F59" s="3">
         <v>100</v>
@@ -2053,8 +2189,11 @@
       <c r="K59" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2068,7 +2207,7 @@
         <v>200</v>
       </c>
       <c r="G60" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H60" s="3">
         <v>100</v>
@@ -2082,8 +2221,11 @@
       <c r="K60" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2111,8 +2253,11 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2140,8 +2285,11 @@
       <c r="K62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2169,8 +2317,11 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2198,8 +2349,11 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2227,8 +2381,11 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -2242,7 +2399,7 @@
         <v>200</v>
       </c>
       <c r="G66" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H66" s="3">
         <v>100</v>
@@ -2256,8 +2413,11 @@
       <c r="K66" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L66" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2269,8 +2429,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2298,8 +2459,11 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2327,8 +2491,11 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2356,8 +2523,11 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2385,8 +2555,11 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -2409,13 +2582,16 @@
         <v>-200</v>
       </c>
       <c r="J72" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="K72" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L72" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2443,8 +2619,11 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2472,8 +2651,11 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2501,8 +2683,11 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -2513,7 +2698,7 @@
         <v>-200</v>
       </c>
       <c r="F76" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="G76" s="3">
         <v>-100</v>
@@ -2530,8 +2715,11 @@
       <c r="K76" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L76" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2559,42 +2747,48 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -2622,8 +2816,11 @@
       <c r="K81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2635,8 +2832,9 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -2664,8 +2862,11 @@
       <c r="K83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2693,8 +2894,11 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2722,8 +2926,11 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2751,8 +2958,11 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2780,8 +2990,11 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2809,8 +3022,11 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -2838,8 +3054,11 @@
       <c r="K89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2851,8 +3070,9 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -2880,8 +3100,11 @@
       <c r="K91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2909,8 +3132,11 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2938,8 +3164,11 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -2967,8 +3196,11 @@
       <c r="K94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2980,8 +3212,9 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3009,8 +3242,11 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3038,8 +3274,11 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3067,8 +3306,11 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3096,8 +3338,11 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -3125,8 +3370,11 @@
       <c r="K100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3154,8 +3402,11 @@
       <c r="K101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -3181,6 +3432,9 @@
         <v>0</v>
       </c>
       <c r="K102" s="3">
+        <v>0</v>
+      </c>
+      <c r="L102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PLYN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PLYN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="92">
   <si>
     <t>PLYN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,59 +665,63 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
         <v>43830</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43738</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -748,8 +752,11 @@
       <c r="L8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -780,8 +787,11 @@
       <c r="L9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -812,8 +822,11 @@
       <c r="L10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -826,8 +839,9 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -858,8 +872,11 @@
       <c r="L12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -890,8 +907,11 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -922,8 +942,11 @@
       <c r="L14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -954,8 +977,11 @@
       <c r="L15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -965,8 +991,9 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -997,8 +1024,11 @@
       <c r="L17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1029,8 +1059,11 @@
       <c r="L18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1043,8 +1076,9 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1075,8 +1109,11 @@
       <c r="L20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1107,8 +1144,11 @@
       <c r="L21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1121,8 +1161,8 @@
       <c r="F22" s="3">
         <v>0</v>
       </c>
-      <c r="G22" s="3" t="s">
-        <v>4</v>
+      <c r="G22" s="3">
+        <v>0</v>
       </c>
       <c r="H22" s="3" t="s">
         <v>4</v>
@@ -1139,8 +1179,11 @@
       <c r="L22" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M22" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1171,8 +1214,11 @@
       <c r="L23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1203,8 +1249,11 @@
       <c r="L24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1235,8 +1284,11 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1267,8 +1319,11 @@
       <c r="L26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1299,8 +1354,11 @@
       <c r="L27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1331,8 +1389,11 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1363,8 +1424,11 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1395,8 +1459,11 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1427,8 +1494,11 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1459,8 +1529,11 @@
       <c r="L32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -1491,8 +1564,11 @@
       <c r="L33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1523,8 +1599,11 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -1555,45 +1634,51 @@
       <c r="L35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
         <v>43830</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43738</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1606,8 +1691,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1620,8 +1706,9 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -1652,8 +1739,11 @@
       <c r="L41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1684,8 +1774,11 @@
       <c r="L42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1716,8 +1809,11 @@
       <c r="L43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1748,8 +1844,11 @@
       <c r="L44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1780,8 +1879,11 @@
       <c r="L45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -1812,8 +1914,11 @@
       <c r="L46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1844,8 +1949,11 @@
       <c r="L47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -1876,8 +1984,11 @@
       <c r="L48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1908,8 +2019,11 @@
       <c r="L49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1940,8 +2054,11 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1972,8 +2089,11 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2004,8 +2124,11 @@
       <c r="L52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2036,8 +2159,11 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -2068,8 +2194,11 @@
       <c r="L54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2082,8 +2211,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2096,8 +2226,9 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2125,11 +2256,14 @@
       <c r="K57" s="3">
         <v>0</v>
       </c>
-      <c r="L57" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L57" s="3">
+        <v>0</v>
+      </c>
+      <c r="M57" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2142,8 +2276,8 @@
       <c r="F58" s="3">
         <v>0</v>
       </c>
-      <c r="G58" s="3" t="s">
-        <v>4</v>
+      <c r="G58" s="3">
+        <v>0</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>4</v>
@@ -2160,8 +2294,11 @@
       <c r="L58" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2172,7 +2309,7 @@
         <v>200</v>
       </c>
       <c r="F59" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G59" s="3">
         <v>100</v>
@@ -2192,8 +2329,11 @@
       <c r="L59" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M59" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2210,7 +2350,7 @@
         <v>200</v>
       </c>
       <c r="H60" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I60" s="3">
         <v>100</v>
@@ -2224,8 +2364,11 @@
       <c r="L60" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M60" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2256,8 +2399,11 @@
       <c r="L61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2288,8 +2434,11 @@
       <c r="L62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2320,8 +2469,11 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2352,8 +2504,11 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2384,8 +2539,11 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -2402,7 +2560,7 @@
         <v>200</v>
       </c>
       <c r="H66" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I66" s="3">
         <v>100</v>
@@ -2416,8 +2574,11 @@
       <c r="L66" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M66" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2430,8 +2591,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2462,8 +2624,11 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2494,8 +2659,11 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2526,8 +2694,11 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2558,13 +2729,16 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="E72" s="3">
         <v>-200</v>
@@ -2585,13 +2759,16 @@
         <v>-200</v>
       </c>
       <c r="K72" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="L72" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M72" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2622,8 +2799,11 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2654,8 +2834,11 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2686,8 +2869,11 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -2701,7 +2887,7 @@
         <v>-200</v>
       </c>
       <c r="G76" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="H76" s="3">
         <v>-100</v>
@@ -2718,8 +2904,11 @@
       <c r="L76" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M76" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2750,45 +2939,51 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
         <v>43830</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43738</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -2819,8 +3014,11 @@
       <c r="L81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2833,8 +3031,9 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -2865,8 +3064,11 @@
       <c r="L83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2897,8 +3099,11 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2929,8 +3134,11 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2961,8 +3169,11 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2993,8 +3204,11 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3025,8 +3239,11 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -3057,8 +3274,11 @@
       <c r="L89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3071,8 +3291,9 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3103,8 +3324,11 @@
       <c r="L91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3135,8 +3359,11 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3167,8 +3394,11 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3199,8 +3429,11 @@
       <c r="L94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3213,8 +3446,9 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3245,8 +3479,11 @@
       <c r="L96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3277,8 +3514,11 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3309,8 +3549,11 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3341,8 +3584,11 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -3373,8 +3619,11 @@
       <c r="L100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3405,8 +3654,11 @@
       <c r="L101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -3435,6 +3687,9 @@
         <v>0</v>
       </c>
       <c r="L102" s="3">
+        <v>0</v>
+      </c>
+      <c r="M102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PLYN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PLYN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="92">
   <si>
     <t>PLYN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,63 +665,71 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -755,8 +763,14 @@
       <c r="M8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="3">
+        <v>0</v>
+      </c>
+      <c r="O8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -790,8 +804,14 @@
       <c r="M9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -825,8 +845,14 @@
       <c r="M10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -840,8 +866,10 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -875,8 +903,14 @@
       <c r="M12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -910,8 +944,14 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -945,8 +985,14 @@
       <c r="M14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -980,8 +1026,14 @@
       <c r="M15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -992,16 +1044,18 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F17" s="3">
         <v>0</v>
@@ -1027,8 +1081,14 @@
       <c r="M17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N17" s="3">
+        <v>0</v>
+      </c>
+      <c r="O17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1036,7 +1096,7 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F18" s="3">
         <v>0</v>
@@ -1062,8 +1122,14 @@
       <c r="M18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N18" s="3">
+        <v>0</v>
+      </c>
+      <c r="O18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1077,8 +1143,10 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1112,8 +1180,14 @@
       <c r="M20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1147,8 +1221,14 @@
       <c r="M21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1164,11 +1244,11 @@
       <c r="G22" s="3">
         <v>0</v>
       </c>
-      <c r="H22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>4</v>
+      <c r="H22" s="3">
+        <v>0</v>
+      </c>
+      <c r="I22" s="3">
+        <v>0</v>
       </c>
       <c r="J22" s="3" t="s">
         <v>4</v>
@@ -1182,16 +1262,22 @@
       <c r="M22" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O22" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F23" s="3">
         <v>0</v>
@@ -1217,8 +1303,14 @@
       <c r="M23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N23" s="3">
+        <v>0</v>
+      </c>
+      <c r="O23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1252,8 +1344,14 @@
       <c r="M24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="3">
+        <v>0</v>
+      </c>
+      <c r="O24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1287,16 +1385,22 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F26" s="3">
         <v>0</v>
@@ -1322,16 +1426,22 @@
       <c r="M26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N26" s="3">
+        <v>0</v>
+      </c>
+      <c r="O26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F27" s="3">
         <v>0</v>
@@ -1357,8 +1467,14 @@
       <c r="M27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N27" s="3">
+        <v>0</v>
+      </c>
+      <c r="O27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1392,8 +1508,14 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1427,8 +1549,14 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1462,8 +1590,14 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1497,8 +1631,14 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1532,16 +1672,22 @@
       <c r="M32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F33" s="3">
         <v>0</v>
@@ -1567,8 +1713,14 @@
       <c r="M33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N33" s="3">
+        <v>0</v>
+      </c>
+      <c r="O33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1602,16 +1754,22 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F35" s="3">
         <v>0</v>
@@ -1637,48 +1795,60 @@
       <c r="M35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N35" s="3">
+        <v>0</v>
+      </c>
+      <c r="O35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1692,8 +1862,10 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1707,8 +1879,10 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -1742,8 +1916,14 @@
       <c r="M41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="3">
+        <v>0</v>
+      </c>
+      <c r="O41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1777,8 +1957,14 @@
       <c r="M42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1812,8 +1998,14 @@
       <c r="M43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="3">
+        <v>0</v>
+      </c>
+      <c r="O43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1847,31 +2039,37 @@
       <c r="M44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="3">
-        <v>0</v>
+      <c r="D45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E45" s="3">
         <v>0</v>
       </c>
-      <c r="F45" s="3">
-        <v>0</v>
-      </c>
-      <c r="G45" s="3">
-        <v>0</v>
-      </c>
-      <c r="H45" s="3">
-        <v>0</v>
-      </c>
-      <c r="I45" s="3">
-        <v>0</v>
-      </c>
-      <c r="J45" s="3">
-        <v>0</v>
+      <c r="F45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K45" s="3">
         <v>0</v>
@@ -1882,8 +2080,14 @@
       <c r="M45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="3">
+        <v>0</v>
+      </c>
+      <c r="O45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -1917,8 +2121,14 @@
       <c r="M46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N46" s="3">
+        <v>0</v>
+      </c>
+      <c r="O46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1952,31 +2162,37 @@
       <c r="M47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3">
+        <v>0</v>
+      </c>
+      <c r="O47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
         <v>0</v>
       </c>
-      <c r="E48" s="3">
-        <v>0</v>
-      </c>
-      <c r="F48" s="3">
-        <v>0</v>
-      </c>
-      <c r="G48" s="3">
-        <v>0</v>
-      </c>
-      <c r="H48" s="3">
-        <v>0</v>
-      </c>
-      <c r="I48" s="3">
-        <v>0</v>
-      </c>
-      <c r="J48" s="3">
-        <v>0</v>
+      <c r="E48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K48" s="3">
         <v>0</v>
@@ -1987,8 +2203,14 @@
       <c r="M48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3">
+        <v>0</v>
+      </c>
+      <c r="O48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2022,8 +2244,14 @@
       <c r="M49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3">
+        <v>0</v>
+      </c>
+      <c r="O49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2057,8 +2285,14 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2092,8 +2326,14 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2127,8 +2367,14 @@
       <c r="M52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3">
+        <v>0</v>
+      </c>
+      <c r="O52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2162,8 +2408,14 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -2197,8 +2449,14 @@
       <c r="M54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="3">
+        <v>0</v>
+      </c>
+      <c r="O54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2212,8 +2470,10 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2227,8 +2487,10 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2259,19 +2521,25 @@
       <c r="L57" s="3">
         <v>0</v>
       </c>
-      <c r="M57" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M57" s="3">
+        <v>0</v>
+      </c>
+      <c r="N57" s="3">
+        <v>0</v>
+      </c>
+      <c r="O57" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F58" s="3">
         <v>0</v>
@@ -2279,11 +2547,11 @@
       <c r="G58" s="3">
         <v>0</v>
       </c>
-      <c r="H58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I58" s="3" t="s">
-        <v>4</v>
+      <c r="H58" s="3">
+        <v>0</v>
+      </c>
+      <c r="I58" s="3">
+        <v>0</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>4</v>
@@ -2297,8 +2565,14 @@
       <c r="M58" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2312,10 +2586,10 @@
         <v>200</v>
       </c>
       <c r="G59" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H59" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I59" s="3">
         <v>100</v>
@@ -2332,16 +2606,22 @@
       <c r="M59" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3">
+        <v>100</v>
+      </c>
+      <c r="O59" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E60" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="F60" s="3">
         <v>200</v>
@@ -2353,10 +2633,10 @@
         <v>200</v>
       </c>
       <c r="I60" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J60" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K60" s="3">
         <v>100</v>
@@ -2367,8 +2647,14 @@
       <c r="M60" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N60" s="3">
+        <v>100</v>
+      </c>
+      <c r="O60" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2402,8 +2688,14 @@
       <c r="M61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2437,8 +2729,14 @@
       <c r="M62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3">
+        <v>0</v>
+      </c>
+      <c r="O62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2472,8 +2770,14 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2507,8 +2811,14 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2542,16 +2852,22 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="E66" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="F66" s="3">
         <v>200</v>
@@ -2563,10 +2879,10 @@
         <v>200</v>
       </c>
       <c r="I66" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J66" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K66" s="3">
         <v>100</v>
@@ -2577,8 +2893,14 @@
       <c r="M66" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="3">
+        <v>100</v>
+      </c>
+      <c r="O66" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2592,8 +2914,10 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2627,8 +2951,14 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2662,8 +2992,14 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2697,8 +3033,14 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2732,19 +3074,25 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E72" s="3">
         <v>-300</v>
       </c>
-      <c r="E72" s="3">
-        <v>-200</v>
-      </c>
       <c r="F72" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="G72" s="3">
         <v>-200</v>
@@ -2762,13 +3110,19 @@
         <v>-200</v>
       </c>
       <c r="L72" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M72" s="3">
+        <v>-200</v>
+      </c>
+      <c r="N72" s="3">
         <v>-100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2802,8 +3156,14 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2837,8 +3197,14 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2872,16 +3238,22 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="E76" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="F76" s="3">
         <v>-200</v>
@@ -2890,10 +3262,10 @@
         <v>-200</v>
       </c>
       <c r="H76" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="I76" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="J76" s="3">
         <v>-100</v>
@@ -2907,8 +3279,14 @@
       <c r="M76" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N76" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O76" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2942,56 +3320,68 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F81" s="3">
         <v>0</v>
@@ -3017,8 +3407,14 @@
       <c r="M81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N81" s="3">
+        <v>0</v>
+      </c>
+      <c r="O81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3032,8 +3428,10 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3067,8 +3465,14 @@
       <c r="M83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3">
+        <v>0</v>
+      </c>
+      <c r="O83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3102,8 +3506,14 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3137,8 +3547,14 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3172,8 +3588,14 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3207,8 +3629,14 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3242,13 +3670,19 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E89" s="3">
         <v>0</v>
@@ -3277,8 +3711,14 @@
       <c r="M89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="3">
+        <v>0</v>
+      </c>
+      <c r="O89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3292,8 +3732,10 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3327,8 +3769,14 @@
       <c r="M91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3">
+        <v>0</v>
+      </c>
+      <c r="O91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3362,8 +3810,14 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3397,8 +3851,14 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3432,8 +3892,14 @@
       <c r="M94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3">
+        <v>0</v>
+      </c>
+      <c r="O94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3447,8 +3913,10 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3482,8 +3950,14 @@
       <c r="M96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3517,8 +3991,14 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3552,8 +4032,14 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3587,13 +4073,19 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E100" s="3">
         <v>0</v>
@@ -3622,8 +4114,14 @@
       <c r="M100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3657,8 +4155,14 @@
       <c r="M101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -3690,6 +4194,12 @@
         <v>0</v>
       </c>
       <c r="M102" s="3">
+        <v>0</v>
+      </c>
+      <c r="N102" s="3">
+        <v>0</v>
+      </c>
+      <c r="O102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PLYN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PLYN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="92">
   <si>
     <t>PLYN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,71 +665,74 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -769,8 +772,11 @@
       <c r="O8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -810,8 +816,11 @@
       <c r="O9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -851,8 +860,11 @@
       <c r="O10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -868,8 +880,9 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -909,8 +922,11 @@
       <c r="O12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -950,8 +966,11 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -991,8 +1010,11 @@
       <c r="O14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1032,8 +1054,11 @@
       <c r="O15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1046,19 +1071,20 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E17" s="3">
         <v>100</v>
       </c>
       <c r="F17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G17" s="3">
         <v>0</v>
@@ -1087,8 +1113,11 @@
       <c r="O17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1099,7 +1128,7 @@
         <v>-100</v>
       </c>
       <c r="F18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G18" s="3">
         <v>0</v>
@@ -1128,8 +1157,11 @@
       <c r="O18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1145,8 +1177,9 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1186,8 +1219,11 @@
       <c r="O20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1227,8 +1263,11 @@
       <c r="O21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1250,8 +1289,8 @@
       <c r="I22" s="3">
         <v>0</v>
       </c>
-      <c r="J22" s="3" t="s">
-        <v>4</v>
+      <c r="J22" s="3">
+        <v>0</v>
       </c>
       <c r="K22" s="3" t="s">
         <v>4</v>
@@ -1268,19 +1307,22 @@
       <c r="O22" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-100</v>
+        <v>-300</v>
       </c>
       <c r="E23" s="3">
         <v>-100</v>
       </c>
       <c r="F23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G23" s="3">
         <v>0</v>
@@ -1309,8 +1351,11 @@
       <c r="O23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1350,8 +1395,11 @@
       <c r="O24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1391,19 +1439,22 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-100</v>
+        <v>-300</v>
       </c>
       <c r="E26" s="3">
         <v>-100</v>
       </c>
       <c r="F26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G26" s="3">
         <v>0</v>
@@ -1432,19 +1483,22 @@
       <c r="O26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-100</v>
+        <v>-300</v>
       </c>
       <c r="E27" s="3">
         <v>-100</v>
       </c>
       <c r="F27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G27" s="3">
         <v>0</v>
@@ -1473,8 +1527,11 @@
       <c r="O27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1514,8 +1571,11 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1555,8 +1615,11 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1596,8 +1659,11 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1637,8 +1703,11 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1678,19 +1747,22 @@
       <c r="O32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-100</v>
+        <v>-300</v>
       </c>
       <c r="E33" s="3">
         <v>-100</v>
       </c>
       <c r="F33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G33" s="3">
         <v>0</v>
@@ -1719,8 +1791,11 @@
       <c r="O33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1760,19 +1835,22 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-100</v>
+        <v>-300</v>
       </c>
       <c r="E35" s="3">
         <v>-100</v>
       </c>
       <c r="F35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G35" s="3">
         <v>0</v>
@@ -1801,54 +1879,60 @@
       <c r="O35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1864,8 +1948,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1881,8 +1966,9 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -1922,8 +2008,11 @@
       <c r="O41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1963,8 +2052,11 @@
       <c r="O42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2004,8 +2096,11 @@
       <c r="O43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2045,19 +2140,22 @@
       <c r="O44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E45" s="3">
-        <v>0</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>4</v>
+      <c r="E45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F45" s="3">
+        <v>0</v>
       </c>
       <c r="G45" s="3" t="s">
         <v>4</v>
@@ -2071,8 +2169,8 @@
       <c r="J45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K45" s="3">
-        <v>0</v>
+      <c r="K45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L45" s="3">
         <v>0</v>
@@ -2086,8 +2184,11 @@
       <c r="O45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2127,8 +2228,11 @@
       <c r="O46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2168,16 +2272,19 @@
       <c r="O47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
         <v>0</v>
       </c>
-      <c r="E48" s="3" t="s">
-        <v>4</v>
+      <c r="E48" s="3">
+        <v>0</v>
       </c>
       <c r="F48" s="3" t="s">
         <v>4</v>
@@ -2194,8 +2301,8 @@
       <c r="J48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K48" s="3">
-        <v>0</v>
+      <c r="K48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L48" s="3">
         <v>0</v>
@@ -2209,8 +2316,11 @@
       <c r="O48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2250,8 +2360,11 @@
       <c r="O49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2291,8 +2404,11 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2332,8 +2448,11 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2373,8 +2492,11 @@
       <c r="O52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2414,8 +2536,11 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -2455,8 +2580,11 @@
       <c r="O54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2472,8 +2600,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2489,8 +2618,9 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2527,11 +2657,14 @@
       <c r="N57" s="3">
         <v>0</v>
       </c>
-      <c r="O57" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O57" s="3">
+        <v>0</v>
+      </c>
+      <c r="P57" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2542,7 +2675,7 @@
         <v>100</v>
       </c>
       <c r="F58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G58" s="3">
         <v>0</v>
@@ -2553,8 +2686,8 @@
       <c r="I58" s="3">
         <v>0</v>
       </c>
-      <c r="J58" s="3" t="s">
-        <v>4</v>
+      <c r="J58" s="3">
+        <v>0</v>
       </c>
       <c r="K58" s="3" t="s">
         <v>4</v>
@@ -2571,13 +2704,16 @@
       <c r="O58" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E59" s="3">
         <v>200</v>
@@ -2592,7 +2728,7 @@
         <v>200</v>
       </c>
       <c r="I59" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J59" s="3">
         <v>100</v>
@@ -2612,19 +2748,22 @@
       <c r="O59" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E60" s="3">
         <v>300</v>
       </c>
       <c r="F60" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="G60" s="3">
         <v>200</v>
@@ -2639,7 +2778,7 @@
         <v>200</v>
       </c>
       <c r="K60" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="L60" s="3">
         <v>100</v>
@@ -2653,8 +2792,11 @@
       <c r="O60" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2694,31 +2836,34 @@
       <c r="O61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>0</v>
-      </c>
-      <c r="E62" s="3">
-        <v>0</v>
-      </c>
-      <c r="F62" s="3">
-        <v>0</v>
-      </c>
-      <c r="G62" s="3">
-        <v>0</v>
-      </c>
-      <c r="H62" s="3">
-        <v>0</v>
-      </c>
-      <c r="I62" s="3">
-        <v>0</v>
-      </c>
-      <c r="J62" s="3">
-        <v>0</v>
+        <v>200</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K62" s="3">
         <v>0</v>
@@ -2735,8 +2880,11 @@
       <c r="O62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2776,8 +2924,11 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2817,8 +2968,11 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2858,19 +3012,22 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>500</v>
+      </c>
+      <c r="E66" s="3">
         <v>400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>300</v>
-      </c>
-      <c r="F66" s="3">
-        <v>200</v>
       </c>
       <c r="G66" s="3">
         <v>200</v>
@@ -2885,7 +3042,7 @@
         <v>200</v>
       </c>
       <c r="K66" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="L66" s="3">
         <v>100</v>
@@ -2899,8 +3056,11 @@
       <c r="O66" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2916,8 +3076,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2957,8 +3118,11 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2998,8 +3162,11 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3039,8 +3206,11 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3080,22 +3250,25 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E72" s="3">
         <v>-400</v>
-      </c>
-      <c r="E72" s="3">
-        <v>-300</v>
       </c>
       <c r="F72" s="3">
         <v>-300</v>
       </c>
       <c r="G72" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="H72" s="3">
         <v>-200</v>
@@ -3116,13 +3289,16 @@
         <v>-200</v>
       </c>
       <c r="N72" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="O72" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3162,8 +3338,11 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3203,8 +3382,11 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3244,19 +3426,22 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-300</v>
+        <v>-500</v>
       </c>
       <c r="E76" s="3">
         <v>-300</v>
       </c>
       <c r="F76" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="G76" s="3">
         <v>-200</v>
@@ -3268,7 +3453,7 @@
         <v>-200</v>
       </c>
       <c r="J76" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="K76" s="3">
         <v>-100</v>
@@ -3285,8 +3470,11 @@
       <c r="O76" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3326,65 +3514,71 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-100</v>
+        <v>-300</v>
       </c>
       <c r="E81" s="3">
         <v>-100</v>
       </c>
       <c r="F81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G81" s="3">
         <v>0</v>
@@ -3413,8 +3607,11 @@
       <c r="O81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3430,31 +3627,32 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
         <v>0</v>
       </c>
-      <c r="E83" s="3">
-        <v>0</v>
-      </c>
-      <c r="F83" s="3">
-        <v>0</v>
-      </c>
-      <c r="G83" s="3">
-        <v>0</v>
-      </c>
-      <c r="H83" s="3">
-        <v>0</v>
-      </c>
-      <c r="I83" s="3">
-        <v>0</v>
-      </c>
-      <c r="J83" s="3">
-        <v>0</v>
+      <c r="E83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K83" s="3">
         <v>0</v>
@@ -3471,8 +3669,11 @@
       <c r="O83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3512,8 +3713,11 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3553,8 +3757,11 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3594,8 +3801,11 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3635,8 +3845,11 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3676,8 +3889,11 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -3685,7 +3901,7 @@
         <v>-100</v>
       </c>
       <c r="E89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F89" s="3">
         <v>0</v>
@@ -3717,8 +3933,11 @@
       <c r="O89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3734,8 +3953,9 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3775,8 +3995,11 @@
       <c r="O91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3816,8 +4039,11 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3857,8 +4083,11 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3898,8 +4127,11 @@
       <c r="O94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3915,8 +4147,9 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3956,8 +4189,11 @@
       <c r="O96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3997,8 +4233,11 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4038,8 +4277,11 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4079,8 +4321,11 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4088,7 +4333,7 @@
         <v>100</v>
       </c>
       <c r="E100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F100" s="3">
         <v>0</v>
@@ -4120,8 +4365,11 @@
       <c r="O100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4161,8 +4409,11 @@
       <c r="O101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4200,6 +4451,9 @@
         <v>0</v>
       </c>
       <c r="O102" s="3">
+        <v>0</v>
+      </c>
+      <c r="P102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PLYN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PLYN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="92">
   <si>
     <t>PLYN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,74 +665,82 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43373</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43281</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43190</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -775,8 +783,14 @@
       <c r="P8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q8" s="3">
+        <v>0</v>
+      </c>
+      <c r="R8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -819,8 +833,14 @@
       <c r="P9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -863,8 +883,14 @@
       <c r="P10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -881,8 +907,10 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -925,8 +953,14 @@
       <c r="P12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -969,31 +1003,37 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
+      <c r="D14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
+        <v>-100</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
@@ -1013,8 +1053,14 @@
       <c r="P14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1057,8 +1103,14 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,26 +1124,28 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>100</v>
+      </c>
+      <c r="E17" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F17" s="3">
         <v>200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>100</v>
       </c>
-      <c r="G17" s="3">
-        <v>0</v>
-      </c>
-      <c r="H17" s="3">
-        <v>0</v>
-      </c>
       <c r="I17" s="3">
         <v>0</v>
       </c>
@@ -1116,8 +1170,14 @@
       <c r="P17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q17" s="3">
+        <v>0</v>
+      </c>
+      <c r="R17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1125,17 +1185,17 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>100</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G18" s="3">
         <v>-100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-100</v>
       </c>
-      <c r="G18" s="3">
-        <v>0</v>
-      </c>
-      <c r="H18" s="3">
-        <v>0</v>
-      </c>
       <c r="I18" s="3">
         <v>0</v>
       </c>
@@ -1160,8 +1220,14 @@
       <c r="P18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q18" s="3">
+        <v>0</v>
+      </c>
+      <c r="R18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,8 +1244,10 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1187,10 +1255,10 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G20" s="3">
         <v>0</v>
@@ -1222,19 +1290,25 @@
       <c r="P20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>4</v>
+      <c r="E21" s="3">
+        <v>0</v>
+      </c>
+      <c r="F21" s="3">
+        <v>-200</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>4</v>
@@ -1266,8 +1340,14 @@
       <c r="P21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1292,11 +1372,11 @@
       <c r="J22" s="3">
         <v>0</v>
       </c>
-      <c r="K22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L22" s="3" t="s">
-        <v>4</v>
+      <c r="K22" s="3">
+        <v>0</v>
+      </c>
+      <c r="L22" s="3">
+        <v>0</v>
       </c>
       <c r="M22" s="3" t="s">
         <v>4</v>
@@ -1310,26 +1390,32 @@
       <c r="P22" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R22" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E23" s="3">
+        <v>0</v>
+      </c>
+      <c r="F23" s="3">
         <v>-300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-100</v>
       </c>
-      <c r="G23" s="3">
-        <v>0</v>
-      </c>
-      <c r="H23" s="3">
-        <v>0</v>
-      </c>
       <c r="I23" s="3">
         <v>0</v>
       </c>
@@ -1354,8 +1440,14 @@
       <c r="P23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q23" s="3">
+        <v>0</v>
+      </c>
+      <c r="R23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1398,8 +1490,14 @@
       <c r="P24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,26 +1540,32 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E26" s="3">
+        <v>0</v>
+      </c>
+      <c r="F26" s="3">
         <v>-300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-100</v>
       </c>
-      <c r="G26" s="3">
-        <v>0</v>
-      </c>
-      <c r="H26" s="3">
-        <v>0</v>
-      </c>
       <c r="I26" s="3">
         <v>0</v>
       </c>
@@ -1486,26 +1590,32 @@
       <c r="P26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q26" s="3">
+        <v>0</v>
+      </c>
+      <c r="R26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E27" s="3">
+        <v>0</v>
+      </c>
+      <c r="F27" s="3">
         <v>-300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-100</v>
       </c>
-      <c r="G27" s="3">
-        <v>0</v>
-      </c>
-      <c r="H27" s="3">
-        <v>0</v>
-      </c>
       <c r="I27" s="3">
         <v>0</v>
       </c>
@@ -1530,8 +1640,14 @@
       <c r="P27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q27" s="3">
+        <v>0</v>
+      </c>
+      <c r="R27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,8 +1690,14 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1618,8 +1740,14 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1790,14 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,8 +1840,14 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1715,10 +1855,10 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G32" s="3">
         <v>0</v>
@@ -1750,26 +1890,32 @@
       <c r="P32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E33" s="3">
+        <v>0</v>
+      </c>
+      <c r="F33" s="3">
         <v>-300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-100</v>
       </c>
-      <c r="G33" s="3">
-        <v>0</v>
-      </c>
-      <c r="H33" s="3">
-        <v>0</v>
-      </c>
       <c r="I33" s="3">
         <v>0</v>
       </c>
@@ -1794,8 +1940,14 @@
       <c r="P33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q33" s="3">
+        <v>0</v>
+      </c>
+      <c r="R33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,26 +1990,32 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E35" s="3">
+        <v>0</v>
+      </c>
+      <c r="F35" s="3">
         <v>-300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-100</v>
       </c>
-      <c r="G35" s="3">
-        <v>0</v>
-      </c>
-      <c r="H35" s="3">
-        <v>0</v>
-      </c>
       <c r="I35" s="3">
         <v>0</v>
       </c>
@@ -1882,57 +2040,69 @@
       <c r="P35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q35" s="3">
+        <v>0</v>
+      </c>
+      <c r="R35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43373</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43281</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43190</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2119,10 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,8 +2139,10 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -1976,7 +2150,7 @@
         <v>0</v>
       </c>
       <c r="E41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F41" s="3">
         <v>0</v>
@@ -2011,8 +2185,14 @@
       <c r="P41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q41" s="3">
+        <v>0</v>
+      </c>
+      <c r="R41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2055,8 +2235,14 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2099,8 +2285,14 @@
       <c r="P43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3">
+        <v>0</v>
+      </c>
+      <c r="R43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2143,8 +2335,14 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2154,14 +2352,14 @@
       <c r="E45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F45" s="3">
-        <v>0</v>
+      <c r="F45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H45" s="3" t="s">
-        <v>4</v>
+      <c r="H45" s="3">
+        <v>0</v>
       </c>
       <c r="I45" s="3" t="s">
         <v>4</v>
@@ -2172,11 +2370,11 @@
       <c r="K45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L45" s="3">
-        <v>0</v>
-      </c>
-      <c r="M45" s="3">
-        <v>0</v>
+      <c r="L45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N45" s="3">
         <v>0</v>
@@ -2187,8 +2385,14 @@
       <c r="P45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3">
+        <v>0</v>
+      </c>
+      <c r="R45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2196,7 +2400,7 @@
         <v>0</v>
       </c>
       <c r="E46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F46" s="3">
         <v>0</v>
@@ -2231,8 +2435,14 @@
       <c r="P46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q46" s="3">
+        <v>0</v>
+      </c>
+      <c r="R46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2275,8 +2485,14 @@
       <c r="P47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2286,11 +2502,11 @@
       <c r="E48" s="3">
         <v>0</v>
       </c>
-      <c r="F48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G48" s="3" t="s">
-        <v>4</v>
+      <c r="F48" s="3">
+        <v>0</v>
+      </c>
+      <c r="G48" s="3">
+        <v>0</v>
       </c>
       <c r="H48" s="3" t="s">
         <v>4</v>
@@ -2304,11 +2520,11 @@
       <c r="K48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L48" s="3">
-        <v>0</v>
-      </c>
-      <c r="M48" s="3">
-        <v>0</v>
+      <c r="L48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N48" s="3">
         <v>0</v>
@@ -2319,8 +2535,14 @@
       <c r="P48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3">
+        <v>0</v>
+      </c>
+      <c r="R48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2363,8 +2585,14 @@
       <c r="P49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2635,14 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,8 +2685,14 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2495,8 +2735,14 @@
       <c r="P52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3">
+        <v>0</v>
+      </c>
+      <c r="R52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,8 +2785,14 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -2548,7 +2800,7 @@
         <v>0</v>
       </c>
       <c r="E54" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F54" s="3">
         <v>0</v>
@@ -2583,8 +2835,14 @@
       <c r="P54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q54" s="3">
+        <v>0</v>
+      </c>
+      <c r="R54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2859,10 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,8 +2879,10 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2660,28 +2922,34 @@
       <c r="O57" s="3">
         <v>0</v>
       </c>
-      <c r="P57" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P57" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q57" s="3">
+        <v>0</v>
+      </c>
+      <c r="R57" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F58" s="3">
         <v>100</v>
       </c>
       <c r="G58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I58" s="3">
         <v>0</v>
@@ -2689,11 +2957,11 @@
       <c r="J58" s="3">
         <v>0</v>
       </c>
-      <c r="K58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L58" s="3" t="s">
-        <v>4</v>
+      <c r="K58" s="3">
+        <v>0</v>
+      </c>
+      <c r="L58" s="3">
+        <v>0</v>
       </c>
       <c r="M58" s="3" t="s">
         <v>4</v>
@@ -2707,19 +2975,25 @@
       <c r="P58" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D59" s="3">
+      <c r="D59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F59" s="3">
         <v>100</v>
-      </c>
-      <c r="E59" s="3">
-        <v>200</v>
-      </c>
-      <c r="F59" s="3">
-        <v>200</v>
       </c>
       <c r="G59" s="3">
         <v>200</v>
@@ -2731,10 +3005,10 @@
         <v>200</v>
       </c>
       <c r="J59" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K59" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="L59" s="3">
         <v>100</v>
@@ -2751,25 +3025,31 @@
       <c r="P59" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q59" s="3">
+        <v>100</v>
+      </c>
+      <c r="R59" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>0</v>
+      </c>
+      <c r="E60" s="3">
+        <v>0</v>
+      </c>
+      <c r="F60" s="3">
         <v>200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>300</v>
-      </c>
-      <c r="G60" s="3">
-        <v>200</v>
-      </c>
-      <c r="H60" s="3">
-        <v>200</v>
       </c>
       <c r="I60" s="3">
         <v>200</v>
@@ -2781,10 +3061,10 @@
         <v>200</v>
       </c>
       <c r="L60" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="M60" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N60" s="3">
         <v>100</v>
@@ -2795,13 +3075,19 @@
       <c r="P60" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q60" s="3">
+        <v>100</v>
+      </c>
+      <c r="R60" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E61" s="3">
         <v>0</v>
@@ -2839,20 +3125,26 @@
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>300</v>
+      </c>
+      <c r="E62" s="3">
+        <v>300</v>
+      </c>
+      <c r="F62" s="3">
         <v>200</v>
       </c>
-      <c r="E62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G62" s="3" t="s">
         <v>4</v>
       </c>
@@ -2865,11 +3157,11 @@
       <c r="J62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K62" s="3">
-        <v>0</v>
-      </c>
-      <c r="L62" s="3">
-        <v>0</v>
+      <c r="K62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M62" s="3">
         <v>0</v>
@@ -2883,8 +3175,14 @@
       <c r="P62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3">
+        <v>0</v>
+      </c>
+      <c r="R62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3225,14 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3275,14 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,8 +3325,14 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -3027,13 +3343,13 @@
         <v>400</v>
       </c>
       <c r="F66" s="3">
+        <v>500</v>
+      </c>
+      <c r="G66" s="3">
+        <v>400</v>
+      </c>
+      <c r="H66" s="3">
         <v>300</v>
-      </c>
-      <c r="G66" s="3">
-        <v>200</v>
-      </c>
-      <c r="H66" s="3">
-        <v>200</v>
       </c>
       <c r="I66" s="3">
         <v>200</v>
@@ -3045,10 +3361,10 @@
         <v>200</v>
       </c>
       <c r="L66" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="M66" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N66" s="3">
         <v>100</v>
@@ -3059,8 +3375,14 @@
       <c r="P66" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q66" s="3">
+        <v>100</v>
+      </c>
+      <c r="R66" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3399,10 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3445,14 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3495,14 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3209,8 +3545,14 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,28 +3595,34 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E72" s="3">
         <v>-700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
+        <v>-700</v>
+      </c>
+      <c r="G72" s="3">
         <v>-400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-300</v>
-      </c>
-      <c r="H72" s="3">
-        <v>-200</v>
-      </c>
-      <c r="I72" s="3">
-        <v>-200</v>
       </c>
       <c r="J72" s="3">
         <v>-200</v>
@@ -3292,13 +3640,19 @@
         <v>-200</v>
       </c>
       <c r="O72" s="3">
+        <v>-200</v>
+      </c>
+      <c r="P72" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Q72" s="3">
         <v>-100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3695,14 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3745,14 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,25 +3795,31 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-500</v>
+        <v>-400</v>
       </c>
       <c r="E76" s="3">
         <v>-300</v>
       </c>
       <c r="F76" s="3">
+        <v>-500</v>
+      </c>
+      <c r="G76" s="3">
         <v>-300</v>
       </c>
-      <c r="G76" s="3">
-        <v>-200</v>
-      </c>
       <c r="H76" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="I76" s="3">
         <v>-200</v>
@@ -3456,10 +3828,10 @@
         <v>-200</v>
       </c>
       <c r="K76" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="L76" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="M76" s="3">
         <v>-100</v>
@@ -3473,8 +3845,14 @@
       <c r="P76" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q76" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R76" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,75 +3895,87 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43373</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43281</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43190</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E81" s="3">
+        <v>0</v>
+      </c>
+      <c r="F81" s="3">
         <v>-300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-100</v>
       </c>
-      <c r="G81" s="3">
-        <v>0</v>
-      </c>
-      <c r="H81" s="3">
-        <v>0</v>
-      </c>
       <c r="I81" s="3">
         <v>0</v>
       </c>
@@ -3610,8 +4000,14 @@
       <c r="P81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q81" s="3">
+        <v>0</v>
+      </c>
+      <c r="R81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,19 +4024,21 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
         <v>0</v>
       </c>
-      <c r="E83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F83" s="3" t="s">
-        <v>4</v>
+      <c r="E83" s="3">
+        <v>0</v>
+      </c>
+      <c r="F83" s="3">
+        <v>0</v>
       </c>
       <c r="G83" s="3" t="s">
         <v>4</v>
@@ -3654,11 +4052,11 @@
       <c r="J83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K83" s="3">
-        <v>0</v>
-      </c>
-      <c r="L83" s="3">
-        <v>0</v>
+      <c r="K83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M83" s="3">
         <v>0</v>
@@ -3672,8 +4070,14 @@
       <c r="P83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +4120,14 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +4170,14 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4220,14 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4270,14 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,8 +4320,14 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -3904,10 +4338,10 @@
         <v>-100</v>
       </c>
       <c r="F89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H89" s="3">
         <v>0</v>
@@ -3936,8 +4370,14 @@
       <c r="P89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q89" s="3">
+        <v>0</v>
+      </c>
+      <c r="R89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,8 +4394,10 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3998,8 +4440,14 @@
       <c r="P91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4490,14 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,8 +4540,14 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4130,8 +4590,14 @@
       <c r="P94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+      <c r="R94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,8 +4614,10 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4192,8 +4660,14 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4710,14 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4760,14 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,23 +4810,29 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
+        <v>200</v>
+      </c>
+      <c r="F100" s="3">
         <v>100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>100</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
       <c r="H100" s="3">
         <v>0</v>
       </c>
@@ -4368,8 +4860,14 @@
       <c r="P100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4412,16 +4910,22 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F102" s="3">
         <v>0</v>
@@ -4454,6 +4958,12 @@
         <v>0</v>
       </c>
       <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PLYN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PLYN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="92">
   <si>
     <t>PLYN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,82 +665,86 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -789,8 +793,11 @@
       <c r="R8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -839,8 +846,11 @@
       <c r="R9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -889,8 +899,11 @@
       <c r="R10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -909,8 +922,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -959,8 +973,11 @@
       <c r="R12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1009,20 +1026,23 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F14" s="3">
         <v>-100</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G14" s="3" t="s">
         <v>4</v>
       </c>
@@ -1035,8 +1055,8 @@
       <c r="J14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
+      <c r="K14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L14" s="3">
         <v>0</v>
@@ -1059,8 +1079,11 @@
       <c r="R14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1109,8 +1132,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1126,8 +1152,9 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1135,19 +1162,19 @@
         <v>100</v>
       </c>
       <c r="E17" s="3">
+        <v>100</v>
+      </c>
+      <c r="F17" s="3">
         <v>-100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>200</v>
-      </c>
-      <c r="G17" s="3">
-        <v>100</v>
       </c>
       <c r="H17" s="3">
         <v>100</v>
       </c>
       <c r="I17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J17" s="3">
         <v>0</v>
@@ -1176,8 +1203,11 @@
       <c r="R17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1185,19 +1215,19 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F18" s="3">
         <v>100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-200</v>
-      </c>
-      <c r="G18" s="3">
-        <v>-100</v>
       </c>
       <c r="H18" s="3">
         <v>-100</v>
       </c>
       <c r="I18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J18" s="3">
         <v>0</v>
@@ -1226,8 +1256,11 @@
       <c r="R18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1246,8 +1279,9 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1261,7 +1295,7 @@
         <v>-100</v>
       </c>
       <c r="G20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H20" s="3">
         <v>0</v>
@@ -1296,8 +1330,11 @@
       <c r="R20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1305,14 +1342,14 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F21" s="3">
+        <v>0</v>
+      </c>
+      <c r="G21" s="3">
         <v>-200</v>
       </c>
-      <c r="G21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1346,8 +1383,11 @@
       <c r="R21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1378,8 +1418,8 @@
       <c r="L22" s="3">
         <v>0</v>
       </c>
-      <c r="M22" s="3" t="s">
-        <v>4</v>
+      <c r="M22" s="3">
+        <v>0</v>
       </c>
       <c r="N22" s="3" t="s">
         <v>4</v>
@@ -1396,28 +1436,31 @@
       <c r="R22" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>0</v>
+      </c>
+      <c r="E23" s="3">
         <v>-100</v>
       </c>
-      <c r="E23" s="3">
-        <v>0</v>
-      </c>
       <c r="F23" s="3">
+        <v>0</v>
+      </c>
+      <c r="G23" s="3">
         <v>-300</v>
-      </c>
-      <c r="G23" s="3">
-        <v>-100</v>
       </c>
       <c r="H23" s="3">
         <v>-100</v>
       </c>
       <c r="I23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J23" s="3">
         <v>0</v>
@@ -1446,8 +1489,11 @@
       <c r="R23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1496,8 +1542,11 @@
       <c r="R24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1546,28 +1595,31 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>0</v>
+      </c>
+      <c r="E26" s="3">
         <v>-100</v>
       </c>
-      <c r="E26" s="3">
-        <v>0</v>
-      </c>
       <c r="F26" s="3">
+        <v>0</v>
+      </c>
+      <c r="G26" s="3">
         <v>-300</v>
-      </c>
-      <c r="G26" s="3">
-        <v>-100</v>
       </c>
       <c r="H26" s="3">
         <v>-100</v>
       </c>
       <c r="I26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J26" s="3">
         <v>0</v>
@@ -1596,28 +1648,31 @@
       <c r="R26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>0</v>
+      </c>
+      <c r="E27" s="3">
         <v>-100</v>
       </c>
-      <c r="E27" s="3">
-        <v>0</v>
-      </c>
       <c r="F27" s="3">
+        <v>0</v>
+      </c>
+      <c r="G27" s="3">
         <v>-300</v>
-      </c>
-      <c r="G27" s="3">
-        <v>-100</v>
       </c>
       <c r="H27" s="3">
         <v>-100</v>
       </c>
       <c r="I27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J27" s="3">
         <v>0</v>
@@ -1646,8 +1701,11 @@
       <c r="R27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1696,8 +1754,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1746,8 +1807,11 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1796,8 +1860,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1846,8 +1913,11 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1861,7 +1931,7 @@
         <v>100</v>
       </c>
       <c r="G32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H32" s="3">
         <v>0</v>
@@ -1896,28 +1966,31 @@
       <c r="R32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>0</v>
+      </c>
+      <c r="E33" s="3">
         <v>-100</v>
       </c>
-      <c r="E33" s="3">
-        <v>0</v>
-      </c>
       <c r="F33" s="3">
+        <v>0</v>
+      </c>
+      <c r="G33" s="3">
         <v>-300</v>
-      </c>
-      <c r="G33" s="3">
-        <v>-100</v>
       </c>
       <c r="H33" s="3">
         <v>-100</v>
       </c>
       <c r="I33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J33" s="3">
         <v>0</v>
@@ -1946,8 +2019,11 @@
       <c r="R33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1996,28 +2072,31 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>0</v>
+      </c>
+      <c r="E35" s="3">
         <v>-100</v>
       </c>
-      <c r="E35" s="3">
-        <v>0</v>
-      </c>
       <c r="F35" s="3">
+        <v>0</v>
+      </c>
+      <c r="G35" s="3">
         <v>-300</v>
-      </c>
-      <c r="G35" s="3">
-        <v>-100</v>
       </c>
       <c r="H35" s="3">
         <v>-100</v>
       </c>
       <c r="I35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J35" s="3">
         <v>0</v>
@@ -2046,63 +2125,69 @@
       <c r="R35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2121,8 +2206,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2141,8 +2227,9 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2150,11 +2237,11 @@
         <v>0</v>
       </c>
       <c r="E41" s="3">
+        <v>0</v>
+      </c>
+      <c r="F41" s="3">
         <v>100</v>
       </c>
-      <c r="F41" s="3">
-        <v>0</v>
-      </c>
       <c r="G41" s="3">
         <v>0</v>
       </c>
@@ -2191,8 +2278,11 @@
       <c r="R41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2241,8 +2331,11 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2291,8 +2384,11 @@
       <c r="R43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2341,8 +2437,11 @@
       <c r="R44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2358,11 +2457,11 @@
       <c r="G45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H45" s="3">
-        <v>0</v>
-      </c>
-      <c r="I45" s="3" t="s">
-        <v>4</v>
+      <c r="H45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I45" s="3">
+        <v>0</v>
       </c>
       <c r="J45" s="3" t="s">
         <v>4</v>
@@ -2376,8 +2475,8 @@
       <c r="M45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N45" s="3">
-        <v>0</v>
+      <c r="N45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O45" s="3">
         <v>0</v>
@@ -2391,8 +2490,11 @@
       <c r="R45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2400,11 +2502,11 @@
         <v>0</v>
       </c>
       <c r="E46" s="3">
+        <v>0</v>
+      </c>
+      <c r="F46" s="3">
         <v>100</v>
       </c>
-      <c r="F46" s="3">
-        <v>0</v>
-      </c>
       <c r="G46" s="3">
         <v>0</v>
       </c>
@@ -2441,8 +2543,11 @@
       <c r="R46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2491,8 +2596,11 @@
       <c r="R47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2508,8 +2616,8 @@
       <c r="G48" s="3">
         <v>0</v>
       </c>
-      <c r="H48" s="3" t="s">
-        <v>4</v>
+      <c r="H48" s="3">
+        <v>0</v>
       </c>
       <c r="I48" s="3" t="s">
         <v>4</v>
@@ -2526,8 +2634,8 @@
       <c r="M48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N48" s="3">
-        <v>0</v>
+      <c r="N48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O48" s="3">
         <v>0</v>
@@ -2541,8 +2649,11 @@
       <c r="R48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2591,8 +2702,11 @@
       <c r="R49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2641,8 +2755,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2691,8 +2808,11 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2741,8 +2861,11 @@
       <c r="R52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2791,8 +2914,11 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -2800,11 +2926,11 @@
         <v>0</v>
       </c>
       <c r="E54" s="3">
+        <v>0</v>
+      </c>
+      <c r="F54" s="3">
         <v>100</v>
       </c>
-      <c r="F54" s="3">
-        <v>0</v>
-      </c>
       <c r="G54" s="3">
         <v>0</v>
       </c>
@@ -2841,8 +2967,11 @@
       <c r="R54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2861,8 +2990,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2881,8 +3011,9 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2928,22 +3059,25 @@
       <c r="Q57" s="3">
         <v>0</v>
       </c>
-      <c r="R57" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="R57" s="3">
+        <v>0</v>
+      </c>
+      <c r="S57" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E58" s="3">
         <v>0</v>
       </c>
       <c r="F58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G58" s="3">
         <v>100</v>
@@ -2952,7 +3086,7 @@
         <v>100</v>
       </c>
       <c r="I58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J58" s="3">
         <v>0</v>
@@ -2963,8 +3097,8 @@
       <c r="L58" s="3">
         <v>0</v>
       </c>
-      <c r="M58" s="3" t="s">
-        <v>4</v>
+      <c r="M58" s="3">
+        <v>0</v>
       </c>
       <c r="N58" s="3" t="s">
         <v>4</v>
@@ -2981,22 +3115,25 @@
       <c r="R58" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D59" s="3" t="s">
-        <v>4</v>
+      <c r="D59" s="3">
+        <v>300</v>
       </c>
       <c r="E59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F59" s="3">
+      <c r="F59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G59" s="3">
         <v>100</v>
-      </c>
-      <c r="G59" s="3">
-        <v>200</v>
       </c>
       <c r="H59" s="3">
         <v>200</v>
@@ -3011,7 +3148,7 @@
         <v>200</v>
       </c>
       <c r="L59" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="M59" s="3">
         <v>100</v>
@@ -3031,28 +3168,31 @@
       <c r="R59" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S59" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E60" s="3">
         <v>0</v>
       </c>
       <c r="F60" s="3">
+        <v>0</v>
+      </c>
+      <c r="G60" s="3">
         <v>200</v>
-      </c>
-      <c r="G60" s="3">
-        <v>300</v>
       </c>
       <c r="H60" s="3">
         <v>300</v>
       </c>
       <c r="I60" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="J60" s="3">
         <v>200</v>
@@ -3067,7 +3207,7 @@
         <v>200</v>
       </c>
       <c r="N60" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="O60" s="3">
         <v>100</v>
@@ -3081,17 +3221,20 @@
       <c r="R60" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S60" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>0</v>
+      </c>
+      <c r="E61" s="3">
         <v>100</v>
       </c>
-      <c r="E61" s="3">
-        <v>0</v>
-      </c>
       <c r="F61" s="3">
         <v>0</v>
       </c>
@@ -3131,23 +3274,26 @@
       <c r="R61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="E62" s="3">
         <v>300</v>
       </c>
       <c r="F62" s="3">
+        <v>300</v>
+      </c>
+      <c r="G62" s="3">
         <v>200</v>
       </c>
-      <c r="G62" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H62" s="3" t="s">
         <v>4</v>
       </c>
@@ -3163,8 +3309,8 @@
       <c r="L62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M62" s="3">
-        <v>0</v>
+      <c r="M62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N62" s="3">
         <v>0</v>
@@ -3181,8 +3327,11 @@
       <c r="R62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3231,8 +3380,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3281,8 +3433,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3331,28 +3486,31 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>400</v>
+      </c>
+      <c r="E66" s="3">
         <v>500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>300</v>
-      </c>
-      <c r="I66" s="3">
-        <v>200</v>
       </c>
       <c r="J66" s="3">
         <v>200</v>
@@ -3367,7 +3525,7 @@
         <v>200</v>
       </c>
       <c r="N66" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="O66" s="3">
         <v>100</v>
@@ -3381,8 +3539,11 @@
       <c r="R66" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S66" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3401,8 +3562,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3451,8 +3613,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3501,8 +3666,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3551,8 +3719,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3601,31 +3772,34 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E72" s="3">
         <v>-800</v>
-      </c>
-      <c r="E72" s="3">
-        <v>-700</v>
       </c>
       <c r="F72" s="3">
         <v>-700</v>
       </c>
       <c r="G72" s="3">
+        <v>-700</v>
+      </c>
+      <c r="H72" s="3">
         <v>-400</v>
-      </c>
-      <c r="H72" s="3">
-        <v>-300</v>
       </c>
       <c r="I72" s="3">
         <v>-300</v>
       </c>
       <c r="J72" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="K72" s="3">
         <v>-200</v>
@@ -3646,13 +3820,16 @@
         <v>-200</v>
       </c>
       <c r="Q72" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="R72" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S72" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3701,8 +3878,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3751,8 +3931,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3801,8 +3984,11 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -3810,19 +3996,19 @@
         <v>-400</v>
       </c>
       <c r="E76" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F76" s="3">
         <v>-300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-500</v>
-      </c>
-      <c r="G76" s="3">
-        <v>-300</v>
       </c>
       <c r="H76" s="3">
         <v>-300</v>
       </c>
       <c r="I76" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="J76" s="3">
         <v>-200</v>
@@ -3834,7 +4020,7 @@
         <v>-200</v>
       </c>
       <c r="M76" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="N76" s="3">
         <v>-100</v>
@@ -3851,8 +4037,11 @@
       <c r="R76" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S76" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3901,83 +4090,89 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>0</v>
+      </c>
+      <c r="E81" s="3">
         <v>-100</v>
       </c>
-      <c r="E81" s="3">
-        <v>0</v>
-      </c>
       <c r="F81" s="3">
+        <v>0</v>
+      </c>
+      <c r="G81" s="3">
         <v>-300</v>
-      </c>
-      <c r="G81" s="3">
-        <v>-100</v>
       </c>
       <c r="H81" s="3">
         <v>-100</v>
       </c>
       <c r="I81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J81" s="3">
         <v>0</v>
@@ -4006,8 +4201,11 @@
       <c r="R81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4026,8 +4224,9 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4040,8 +4239,8 @@
       <c r="F83" s="3">
         <v>0</v>
       </c>
-      <c r="G83" s="3" t="s">
-        <v>4</v>
+      <c r="G83" s="3">
+        <v>0</v>
       </c>
       <c r="H83" s="3" t="s">
         <v>4</v>
@@ -4058,8 +4257,8 @@
       <c r="L83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M83" s="3">
-        <v>0</v>
+      <c r="M83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N83" s="3">
         <v>0</v>
@@ -4076,8 +4275,11 @@
       <c r="R83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4126,8 +4328,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4176,8 +4381,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4226,8 +4434,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4276,8 +4487,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4326,13 +4540,16 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E89" s="3">
         <v>-100</v>
@@ -4344,7 +4561,7 @@
         <v>-100</v>
       </c>
       <c r="H89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I89" s="3">
         <v>0</v>
@@ -4376,8 +4593,11 @@
       <c r="R89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4396,8 +4616,9 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4446,8 +4667,11 @@
       <c r="R91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4496,8 +4720,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4546,8 +4773,11 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4596,8 +4826,11 @@
       <c r="R94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4616,8 +4849,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4666,8 +4900,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4716,8 +4953,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4766,8 +5006,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4816,8 +5059,11 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4825,16 +5071,16 @@
         <v>0</v>
       </c>
       <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>200</v>
-      </c>
-      <c r="F100" s="3">
-        <v>100</v>
       </c>
       <c r="G100" s="3">
         <v>100</v>
       </c>
       <c r="H100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I100" s="3">
         <v>0</v>
@@ -4866,8 +5112,11 @@
       <c r="R100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4916,20 +5165,23 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>0</v>
+      </c>
+      <c r="E102" s="3">
         <v>-100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>100</v>
       </c>
-      <c r="F102" s="3">
-        <v>0</v>
-      </c>
       <c r="G102" s="3">
         <v>0</v>
       </c>
@@ -4964,6 +5216,9 @@
         <v>0</v>
       </c>
       <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PLYN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PLYN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="92">
   <si>
     <t>PLYN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,86 +665,89 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -796,8 +799,11 @@
       <c r="S8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -849,8 +855,11 @@
       <c r="S9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -902,8 +911,11 @@
       <c r="S10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -923,8 +935,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -976,8 +989,11 @@
       <c r="S12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1029,23 +1045,26 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>4</v>
+      <c r="D14" s="3">
+        <v>0</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G14" s="3">
         <v>-100</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H14" s="3" t="s">
         <v>4</v>
       </c>
@@ -1058,8 +1077,8 @@
       <c r="K14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
+      <c r="L14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M14" s="3">
         <v>0</v>
@@ -1082,8 +1101,11 @@
       <c r="S14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1135,8 +1157,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1153,31 +1178,32 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E17" s="3">
         <v>100</v>
       </c>
       <c r="F17" s="3">
+        <v>100</v>
+      </c>
+      <c r="G17" s="3">
         <v>-100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>200</v>
-      </c>
-      <c r="H17" s="3">
-        <v>100</v>
       </c>
       <c r="I17" s="3">
         <v>100</v>
       </c>
       <c r="J17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K17" s="3">
         <v>0</v>
@@ -1206,8 +1232,11 @@
       <c r="S17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1218,19 +1247,19 @@
         <v>-100</v>
       </c>
       <c r="F18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G18" s="3">
         <v>100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-200</v>
-      </c>
-      <c r="H18" s="3">
-        <v>-100</v>
       </c>
       <c r="I18" s="3">
         <v>-100</v>
       </c>
       <c r="J18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K18" s="3">
         <v>0</v>
@@ -1259,8 +1288,11 @@
       <c r="S18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1280,8 +1312,9 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1289,7 +1322,7 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F20" s="3">
         <v>-100</v>
@@ -1298,7 +1331,7 @@
         <v>-100</v>
       </c>
       <c r="H20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I20" s="3">
         <v>0</v>
@@ -1333,8 +1366,11 @@
       <c r="S20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1342,17 +1378,17 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>0</v>
+      </c>
+      <c r="F21" s="3">
         <v>-100</v>
       </c>
-      <c r="F21" s="3">
-        <v>0</v>
-      </c>
       <c r="G21" s="3">
+        <v>0</v>
+      </c>
+      <c r="H21" s="3">
         <v>-200</v>
       </c>
-      <c r="H21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1386,8 +1422,11 @@
       <c r="S21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1421,8 +1460,8 @@
       <c r="M22" s="3">
         <v>0</v>
       </c>
-      <c r="N22" s="3" t="s">
-        <v>4</v>
+      <c r="N22" s="3">
+        <v>0</v>
       </c>
       <c r="O22" s="3" t="s">
         <v>4</v>
@@ -1439,31 +1478,34 @@
       <c r="S22" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E23" s="3">
+        <v>0</v>
+      </c>
+      <c r="F23" s="3">
         <v>-100</v>
       </c>
-      <c r="F23" s="3">
-        <v>0</v>
-      </c>
       <c r="G23" s="3">
+        <v>0</v>
+      </c>
+      <c r="H23" s="3">
         <v>-300</v>
-      </c>
-      <c r="H23" s="3">
-        <v>-100</v>
       </c>
       <c r="I23" s="3">
         <v>-100</v>
       </c>
       <c r="J23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K23" s="3">
         <v>0</v>
@@ -1492,8 +1534,11 @@
       <c r="S23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1545,8 +1590,11 @@
       <c r="S24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1598,31 +1646,34 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E26" s="3">
+        <v>0</v>
+      </c>
+      <c r="F26" s="3">
         <v>-100</v>
       </c>
-      <c r="F26" s="3">
-        <v>0</v>
-      </c>
       <c r="G26" s="3">
+        <v>0</v>
+      </c>
+      <c r="H26" s="3">
         <v>-300</v>
-      </c>
-      <c r="H26" s="3">
-        <v>-100</v>
       </c>
       <c r="I26" s="3">
         <v>-100</v>
       </c>
       <c r="J26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K26" s="3">
         <v>0</v>
@@ -1651,31 +1702,34 @@
       <c r="S26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E27" s="3">
+        <v>0</v>
+      </c>
+      <c r="F27" s="3">
         <v>-100</v>
       </c>
-      <c r="F27" s="3">
-        <v>0</v>
-      </c>
       <c r="G27" s="3">
+        <v>0</v>
+      </c>
+      <c r="H27" s="3">
         <v>-300</v>
-      </c>
-      <c r="H27" s="3">
-        <v>-100</v>
       </c>
       <c r="I27" s="3">
         <v>-100</v>
       </c>
       <c r="J27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K27" s="3">
         <v>0</v>
@@ -1704,8 +1758,11 @@
       <c r="S27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1757,8 +1814,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1810,8 +1870,11 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1863,8 +1926,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1916,8 +1982,11 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1925,7 +1994,7 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F32" s="3">
         <v>100</v>
@@ -1934,7 +2003,7 @@
         <v>100</v>
       </c>
       <c r="H32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I32" s="3">
         <v>0</v>
@@ -1969,31 +2038,34 @@
       <c r="S32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E33" s="3">
+        <v>0</v>
+      </c>
+      <c r="F33" s="3">
         <v>-100</v>
       </c>
-      <c r="F33" s="3">
-        <v>0</v>
-      </c>
       <c r="G33" s="3">
+        <v>0</v>
+      </c>
+      <c r="H33" s="3">
         <v>-300</v>
-      </c>
-      <c r="H33" s="3">
-        <v>-100</v>
       </c>
       <c r="I33" s="3">
         <v>-100</v>
       </c>
       <c r="J33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K33" s="3">
         <v>0</v>
@@ -2022,8 +2094,11 @@
       <c r="S33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2075,31 +2150,34 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E35" s="3">
+        <v>0</v>
+      </c>
+      <c r="F35" s="3">
         <v>-100</v>
       </c>
-      <c r="F35" s="3">
-        <v>0</v>
-      </c>
       <c r="G35" s="3">
+        <v>0</v>
+      </c>
+      <c r="H35" s="3">
         <v>-300</v>
-      </c>
-      <c r="H35" s="3">
-        <v>-100</v>
       </c>
       <c r="I35" s="3">
         <v>-100</v>
       </c>
       <c r="J35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K35" s="3">
         <v>0</v>
@@ -2128,66 +2206,72 @@
       <c r="S35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2207,8 +2291,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2228,8 +2313,9 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2240,11 +2326,11 @@
         <v>0</v>
       </c>
       <c r="F41" s="3">
+        <v>0</v>
+      </c>
+      <c r="G41" s="3">
         <v>100</v>
       </c>
-      <c r="G41" s="3">
-        <v>0</v>
-      </c>
       <c r="H41" s="3">
         <v>0</v>
       </c>
@@ -2281,8 +2367,11 @@
       <c r="S41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2334,8 +2423,11 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2387,8 +2479,11 @@
       <c r="S43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2440,8 +2535,11 @@
       <c r="S44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2460,11 +2558,11 @@
       <c r="H45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I45" s="3">
-        <v>0</v>
-      </c>
-      <c r="J45" s="3" t="s">
-        <v>4</v>
+      <c r="I45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J45" s="3">
+        <v>0</v>
       </c>
       <c r="K45" s="3" t="s">
         <v>4</v>
@@ -2478,8 +2576,8 @@
       <c r="N45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O45" s="3">
-        <v>0</v>
+      <c r="O45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P45" s="3">
         <v>0</v>
@@ -2493,8 +2591,11 @@
       <c r="S45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2505,11 +2606,11 @@
         <v>0</v>
       </c>
       <c r="F46" s="3">
+        <v>0</v>
+      </c>
+      <c r="G46" s="3">
         <v>100</v>
       </c>
-      <c r="G46" s="3">
-        <v>0</v>
-      </c>
       <c r="H46" s="3">
         <v>0</v>
       </c>
@@ -2546,8 +2647,11 @@
       <c r="S46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2599,8 +2703,11 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2619,8 +2726,8 @@
       <c r="H48" s="3">
         <v>0</v>
       </c>
-      <c r="I48" s="3" t="s">
-        <v>4</v>
+      <c r="I48" s="3">
+        <v>0</v>
       </c>
       <c r="J48" s="3" t="s">
         <v>4</v>
@@ -2637,8 +2744,8 @@
       <c r="N48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O48" s="3">
-        <v>0</v>
+      <c r="O48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P48" s="3">
         <v>0</v>
@@ -2652,8 +2759,11 @@
       <c r="S48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2705,8 +2815,11 @@
       <c r="S49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2758,8 +2871,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2811,8 +2927,11 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2864,8 +2983,11 @@
       <c r="S52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2917,8 +3039,11 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -2929,11 +3054,11 @@
         <v>0</v>
       </c>
       <c r="F54" s="3">
+        <v>0</v>
+      </c>
+      <c r="G54" s="3">
         <v>100</v>
       </c>
-      <c r="G54" s="3">
-        <v>0</v>
-      </c>
       <c r="H54" s="3">
         <v>0</v>
       </c>
@@ -2970,8 +3095,11 @@
       <c r="S54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2991,8 +3119,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3012,8 +3141,9 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3062,25 +3192,28 @@
       <c r="R57" s="3">
         <v>0</v>
       </c>
-      <c r="S57" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="S57" s="3">
+        <v>0</v>
+      </c>
+      <c r="T57" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>200</v>
+      </c>
+      <c r="E58" s="3">
         <v>100</v>
       </c>
-      <c r="E58" s="3">
-        <v>0</v>
-      </c>
       <c r="F58" s="3">
         <v>0</v>
       </c>
       <c r="G58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H58" s="3">
         <v>100</v>
@@ -3089,7 +3222,7 @@
         <v>100</v>
       </c>
       <c r="J58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K58" s="3">
         <v>0</v>
@@ -3100,8 +3233,8 @@
       <c r="M58" s="3">
         <v>0</v>
       </c>
-      <c r="N58" s="3" t="s">
-        <v>4</v>
+      <c r="N58" s="3">
+        <v>0</v>
       </c>
       <c r="O58" s="3" t="s">
         <v>4</v>
@@ -3118,25 +3251,28 @@
       <c r="S58" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>200</v>
+      </c>
+      <c r="E59" s="3">
         <v>300</v>
       </c>
-      <c r="E59" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="F59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G59" s="3">
+      <c r="G59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H59" s="3">
         <v>100</v>
-      </c>
-      <c r="H59" s="3">
-        <v>200</v>
       </c>
       <c r="I59" s="3">
         <v>200</v>
@@ -3151,7 +3287,7 @@
         <v>200</v>
       </c>
       <c r="M59" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N59" s="3">
         <v>100</v>
@@ -3171,8 +3307,11 @@
       <c r="S59" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T59" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3180,22 +3319,22 @@
         <v>400</v>
       </c>
       <c r="E60" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F60" s="3">
         <v>0</v>
       </c>
       <c r="G60" s="3">
+        <v>0</v>
+      </c>
+      <c r="H60" s="3">
         <v>200</v>
-      </c>
-      <c r="H60" s="3">
-        <v>300</v>
       </c>
       <c r="I60" s="3">
         <v>300</v>
       </c>
       <c r="J60" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K60" s="3">
         <v>200</v>
@@ -3210,7 +3349,7 @@
         <v>200</v>
       </c>
       <c r="O60" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="P60" s="3">
         <v>100</v>
@@ -3224,8 +3363,11 @@
       <c r="S60" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T60" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3233,11 +3375,11 @@
         <v>0</v>
       </c>
       <c r="E61" s="3">
+        <v>0</v>
+      </c>
+      <c r="F61" s="3">
         <v>100</v>
       </c>
-      <c r="F61" s="3">
-        <v>0</v>
-      </c>
       <c r="G61" s="3">
         <v>0</v>
       </c>
@@ -3277,8 +3419,11 @@
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3286,17 +3431,17 @@
         <v>0</v>
       </c>
       <c r="E62" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="F62" s="3">
         <v>300</v>
       </c>
       <c r="G62" s="3">
+        <v>300</v>
+      </c>
+      <c r="H62" s="3">
         <v>200</v>
       </c>
-      <c r="H62" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I62" s="3" t="s">
         <v>4</v>
       </c>
@@ -3312,8 +3457,8 @@
       <c r="M62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N62" s="3">
-        <v>0</v>
+      <c r="N62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O62" s="3">
         <v>0</v>
@@ -3330,8 +3475,11 @@
       <c r="S62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3383,8 +3531,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3436,8 +3587,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3489,8 +3643,11 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -3498,22 +3655,22 @@
         <v>400</v>
       </c>
       <c r="E66" s="3">
+        <v>400</v>
+      </c>
+      <c r="F66" s="3">
         <v>500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>300</v>
-      </c>
-      <c r="J66" s="3">
-        <v>200</v>
       </c>
       <c r="K66" s="3">
         <v>200</v>
@@ -3528,7 +3685,7 @@
         <v>200</v>
       </c>
       <c r="O66" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="P66" s="3">
         <v>100</v>
@@ -3542,8 +3699,11 @@
       <c r="S66" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T66" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3563,8 +3723,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3616,8 +3777,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3669,8 +3833,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3722,8 +3889,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3775,8 +3945,11 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -3784,25 +3957,25 @@
         <v>-900</v>
       </c>
       <c r="E72" s="3">
+        <v>-900</v>
+      </c>
+      <c r="F72" s="3">
         <v>-800</v>
-      </c>
-      <c r="F72" s="3">
-        <v>-700</v>
       </c>
       <c r="G72" s="3">
         <v>-700</v>
       </c>
       <c r="H72" s="3">
+        <v>-700</v>
+      </c>
+      <c r="I72" s="3">
         <v>-400</v>
-      </c>
-      <c r="I72" s="3">
-        <v>-300</v>
       </c>
       <c r="J72" s="3">
         <v>-300</v>
       </c>
       <c r="K72" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="L72" s="3">
         <v>-200</v>
@@ -3823,13 +3996,16 @@
         <v>-200</v>
       </c>
       <c r="R72" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="S72" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T72" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3881,8 +4057,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3934,8 +4113,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3987,8 +4169,11 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -3999,19 +4184,19 @@
         <v>-400</v>
       </c>
       <c r="F76" s="3">
+        <v>-400</v>
+      </c>
+      <c r="G76" s="3">
         <v>-300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-500</v>
-      </c>
-      <c r="H76" s="3">
-        <v>-300</v>
       </c>
       <c r="I76" s="3">
         <v>-300</v>
       </c>
       <c r="J76" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="K76" s="3">
         <v>-200</v>
@@ -4023,7 +4208,7 @@
         <v>-200</v>
       </c>
       <c r="N76" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="O76" s="3">
         <v>-100</v>
@@ -4040,8 +4225,11 @@
       <c r="S76" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T76" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4093,89 +4281,95 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E81" s="3">
+        <v>0</v>
+      </c>
+      <c r="F81" s="3">
         <v>-100</v>
       </c>
-      <c r="F81" s="3">
-        <v>0</v>
-      </c>
       <c r="G81" s="3">
+        <v>0</v>
+      </c>
+      <c r="H81" s="3">
         <v>-300</v>
-      </c>
-      <c r="H81" s="3">
-        <v>-100</v>
       </c>
       <c r="I81" s="3">
         <v>-100</v>
       </c>
       <c r="J81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K81" s="3">
         <v>0</v>
@@ -4204,8 +4398,11 @@
       <c r="S81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4225,8 +4422,9 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4242,8 +4440,8 @@
       <c r="G83" s="3">
         <v>0</v>
       </c>
-      <c r="H83" s="3" t="s">
-        <v>4</v>
+      <c r="H83" s="3">
+        <v>0</v>
       </c>
       <c r="I83" s="3" t="s">
         <v>4</v>
@@ -4260,8 +4458,8 @@
       <c r="M83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N83" s="3">
-        <v>0</v>
+      <c r="N83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O83" s="3">
         <v>0</v>
@@ -4278,8 +4476,11 @@
       <c r="S83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4331,8 +4532,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4384,8 +4588,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4437,8 +4644,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4490,8 +4700,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4543,8 +4756,11 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4552,7 +4768,7 @@
         <v>0</v>
       </c>
       <c r="E89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F89" s="3">
         <v>-100</v>
@@ -4564,7 +4780,7 @@
         <v>-100</v>
       </c>
       <c r="I89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J89" s="3">
         <v>0</v>
@@ -4596,8 +4812,11 @@
       <c r="S89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4617,8 +4836,9 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4670,8 +4890,11 @@
       <c r="S91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4723,8 +4946,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4776,8 +5002,11 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4829,8 +5058,11 @@
       <c r="S94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4850,8 +5082,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4903,8 +5136,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4956,8 +5192,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5009,8 +5248,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5062,8 +5304,11 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5074,16 +5319,16 @@
         <v>0</v>
       </c>
       <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>200</v>
-      </c>
-      <c r="G100" s="3">
-        <v>100</v>
       </c>
       <c r="H100" s="3">
         <v>100</v>
       </c>
       <c r="I100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J100" s="3">
         <v>0</v>
@@ -5115,8 +5360,11 @@
       <c r="S100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5168,8 +5416,11 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5177,14 +5428,14 @@
         <v>0</v>
       </c>
       <c r="E102" s="3">
+        <v>0</v>
+      </c>
+      <c r="F102" s="3">
         <v>-100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>100</v>
       </c>
-      <c r="G102" s="3">
-        <v>0</v>
-      </c>
       <c r="H102" s="3">
         <v>0</v>
       </c>
@@ -5219,6 +5470,9 @@
         <v>0</v>
       </c>
       <c r="S102" s="3">
+        <v>0</v>
+      </c>
+      <c r="T102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PLYN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PLYN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="92">
   <si>
     <t>PLYN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,89 +665,97 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -802,8 +810,14 @@
       <c r="T8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U8" s="3">
+        <v>0</v>
+      </c>
+      <c r="V8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -858,8 +872,14 @@
       <c r="T9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -914,8 +934,14 @@
       <c r="T10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -936,8 +962,10 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -992,8 +1020,14 @@
       <c r="T12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1048,29 +1082,35 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G14" s="3">
+      <c r="D14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I14" s="3">
         <v>-100</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J14" s="3" t="s">
         <v>4</v>
       </c>
@@ -1080,11 +1120,11 @@
       <c r="L14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
-      <c r="N14" s="3">
-        <v>0</v>
+      <c r="M14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O14" s="3">
         <v>0</v>
@@ -1104,8 +1144,14 @@
       <c r="T14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1160,8 +1206,14 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,38 +1231,40 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E17" s="3">
         <v>100</v>
       </c>
       <c r="F17" s="3">
+        <v>0</v>
+      </c>
+      <c r="G17" s="3">
         <v>100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
+        <v>100</v>
+      </c>
+      <c r="I17" s="3">
         <v>-100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>100</v>
       </c>
-      <c r="K17" s="3">
-        <v>0</v>
-      </c>
-      <c r="L17" s="3">
-        <v>0</v>
-      </c>
       <c r="M17" s="3">
         <v>0</v>
       </c>
@@ -1235,8 +1289,14 @@
       <c r="T17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U17" s="3">
+        <v>0</v>
+      </c>
+      <c r="V17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1247,26 +1307,26 @@
         <v>-100</v>
       </c>
       <c r="F18" s="3">
+        <v>0</v>
+      </c>
+      <c r="G18" s="3">
         <v>-100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I18" s="3">
         <v>100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-100</v>
       </c>
-      <c r="K18" s="3">
-        <v>0</v>
-      </c>
-      <c r="L18" s="3">
-        <v>0</v>
-      </c>
       <c r="M18" s="3">
         <v>0</v>
       </c>
@@ -1291,8 +1351,14 @@
       <c r="T18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U18" s="3">
+        <v>0</v>
+      </c>
+      <c r="V18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1313,8 +1379,10 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1325,19 +1393,19 @@
         <v>0</v>
       </c>
       <c r="F20" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G20" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H20" s="3">
         <v>-100</v>
       </c>
       <c r="I20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K20" s="3">
         <v>0</v>
@@ -1369,8 +1437,14 @@
       <c r="T20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U20" s="3">
+        <v>0</v>
+      </c>
+      <c r="V20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1378,7 +1452,7 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F21" s="3">
         <v>-100</v>
@@ -1387,14 +1461,14 @@
         <v>0</v>
       </c>
       <c r="H21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I21" s="3">
+        <v>0</v>
+      </c>
+      <c r="J21" s="3">
         <v>-200</v>
       </c>
-      <c r="I21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1425,8 +1499,14 @@
       <c r="T21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1463,11 +1543,11 @@
       <c r="N22" s="3">
         <v>0</v>
       </c>
-      <c r="O22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P22" s="3" t="s">
-        <v>4</v>
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+      <c r="P22" s="3">
+        <v>0</v>
       </c>
       <c r="Q22" s="3" t="s">
         <v>4</v>
@@ -1481,16 +1561,22 @@
       <c r="T22" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V22" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>0</v>
+      </c>
+      <c r="E23" s="3">
         <v>-100</v>
-      </c>
-      <c r="E23" s="3">
-        <v>0</v>
       </c>
       <c r="F23" s="3">
         <v>-100</v>
@@ -1499,20 +1585,20 @@
         <v>0</v>
       </c>
       <c r="H23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I23" s="3">
+        <v>0</v>
+      </c>
+      <c r="J23" s="3">
         <v>-300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-100</v>
       </c>
-      <c r="K23" s="3">
-        <v>0</v>
-      </c>
-      <c r="L23" s="3">
-        <v>0</v>
-      </c>
       <c r="M23" s="3">
         <v>0</v>
       </c>
@@ -1537,8 +1623,14 @@
       <c r="T23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U23" s="3">
+        <v>0</v>
+      </c>
+      <c r="V23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1593,8 +1685,14 @@
       <c r="T24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+      <c r="V24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1649,16 +1747,22 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>0</v>
+      </c>
+      <c r="E26" s="3">
         <v>-100</v>
-      </c>
-      <c r="E26" s="3">
-        <v>0</v>
       </c>
       <c r="F26" s="3">
         <v>-100</v>
@@ -1667,20 +1771,20 @@
         <v>0</v>
       </c>
       <c r="H26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I26" s="3">
+        <v>0</v>
+      </c>
+      <c r="J26" s="3">
         <v>-300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-100</v>
       </c>
-      <c r="K26" s="3">
-        <v>0</v>
-      </c>
-      <c r="L26" s="3">
-        <v>0</v>
-      </c>
       <c r="M26" s="3">
         <v>0</v>
       </c>
@@ -1705,16 +1809,22 @@
       <c r="T26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U26" s="3">
+        <v>0</v>
+      </c>
+      <c r="V26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>0</v>
+      </c>
+      <c r="E27" s="3">
         <v>-100</v>
-      </c>
-      <c r="E27" s="3">
-        <v>0</v>
       </c>
       <c r="F27" s="3">
         <v>-100</v>
@@ -1723,20 +1833,20 @@
         <v>0</v>
       </c>
       <c r="H27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I27" s="3">
+        <v>0</v>
+      </c>
+      <c r="J27" s="3">
         <v>-300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-100</v>
       </c>
-      <c r="K27" s="3">
-        <v>0</v>
-      </c>
-      <c r="L27" s="3">
-        <v>0</v>
-      </c>
       <c r="M27" s="3">
         <v>0</v>
       </c>
@@ -1761,8 +1871,14 @@
       <c r="T27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U27" s="3">
+        <v>0</v>
+      </c>
+      <c r="V27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1817,8 +1933,14 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1873,8 +1995,14 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +2057,14 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,8 +2119,14 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1997,19 +2137,19 @@
         <v>0</v>
       </c>
       <c r="F32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H32" s="3">
         <v>100</v>
       </c>
       <c r="I32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K32" s="3">
         <v>0</v>
@@ -2041,16 +2181,22 @@
       <c r="T32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U32" s="3">
+        <v>0</v>
+      </c>
+      <c r="V32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>0</v>
+      </c>
+      <c r="E33" s="3">
         <v>-100</v>
-      </c>
-      <c r="E33" s="3">
-        <v>0</v>
       </c>
       <c r="F33" s="3">
         <v>-100</v>
@@ -2059,20 +2205,20 @@
         <v>0</v>
       </c>
       <c r="H33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I33" s="3">
+        <v>0</v>
+      </c>
+      <c r="J33" s="3">
         <v>-300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-100</v>
       </c>
-      <c r="K33" s="3">
-        <v>0</v>
-      </c>
-      <c r="L33" s="3">
-        <v>0</v>
-      </c>
       <c r="M33" s="3">
         <v>0</v>
       </c>
@@ -2097,8 +2243,14 @@
       <c r="T33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U33" s="3">
+        <v>0</v>
+      </c>
+      <c r="V33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,16 +2305,22 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>0</v>
+      </c>
+      <c r="E35" s="3">
         <v>-100</v>
-      </c>
-      <c r="E35" s="3">
-        <v>0</v>
       </c>
       <c r="F35" s="3">
         <v>-100</v>
@@ -2171,20 +2329,20 @@
         <v>0</v>
       </c>
       <c r="H35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I35" s="3">
+        <v>0</v>
+      </c>
+      <c r="J35" s="3">
         <v>-300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-100</v>
       </c>
-      <c r="K35" s="3">
-        <v>0</v>
-      </c>
-      <c r="L35" s="3">
-        <v>0</v>
-      </c>
       <c r="M35" s="3">
         <v>0</v>
       </c>
@@ -2209,69 +2367,81 @@
       <c r="T35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U35" s="3">
+        <v>0</v>
+      </c>
+      <c r="V35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2462,10 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,8 +2486,10 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2329,14 +2503,14 @@
         <v>0</v>
       </c>
       <c r="G41" s="3">
+        <v>0</v>
+      </c>
+      <c r="H41" s="3">
+        <v>0</v>
+      </c>
+      <c r="I41" s="3">
         <v>100</v>
       </c>
-      <c r="H41" s="3">
-        <v>0</v>
-      </c>
-      <c r="I41" s="3">
-        <v>0</v>
-      </c>
       <c r="J41" s="3">
         <v>0</v>
       </c>
@@ -2370,8 +2544,14 @@
       <c r="T41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U41" s="3">
+        <v>0</v>
+      </c>
+      <c r="V41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2426,8 +2606,14 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2482,8 +2668,14 @@
       <c r="T43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U43" s="3">
+        <v>0</v>
+      </c>
+      <c r="V43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2538,16 +2730,22 @@
       <c r="T44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>4</v>
+      <c r="D45" s="3">
+        <v>0</v>
+      </c>
+      <c r="E45" s="3">
+        <v>0</v>
       </c>
       <c r="F45" s="3" t="s">
         <v>4</v>
@@ -2561,14 +2759,14 @@
       <c r="I45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J45" s="3">
-        <v>0</v>
+      <c r="J45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L45" s="3" t="s">
-        <v>4</v>
+      <c r="L45" s="3">
+        <v>0</v>
       </c>
       <c r="M45" s="3" t="s">
         <v>4</v>
@@ -2579,11 +2777,11 @@
       <c r="O45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P45" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q45" s="3">
-        <v>0</v>
+      <c r="P45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R45" s="3">
         <v>0</v>
@@ -2594,8 +2792,14 @@
       <c r="T45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U45" s="3">
+        <v>0</v>
+      </c>
+      <c r="V45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2609,14 +2813,14 @@
         <v>0</v>
       </c>
       <c r="G46" s="3">
+        <v>0</v>
+      </c>
+      <c r="H46" s="3">
+        <v>0</v>
+      </c>
+      <c r="I46" s="3">
         <v>100</v>
       </c>
-      <c r="H46" s="3">
-        <v>0</v>
-      </c>
-      <c r="I46" s="3">
-        <v>0</v>
-      </c>
       <c r="J46" s="3">
         <v>0</v>
       </c>
@@ -2650,8 +2854,14 @@
       <c r="T46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U46" s="3">
+        <v>0</v>
+      </c>
+      <c r="V46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2706,8 +2916,14 @@
       <c r="T47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2729,11 +2945,11 @@
       <c r="I48" s="3">
         <v>0</v>
       </c>
-      <c r="J48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K48" s="3" t="s">
-        <v>4</v>
+      <c r="J48" s="3">
+        <v>0</v>
+      </c>
+      <c r="K48" s="3">
+        <v>0</v>
       </c>
       <c r="L48" s="3" t="s">
         <v>4</v>
@@ -2747,11 +2963,11 @@
       <c r="O48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P48" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q48" s="3">
-        <v>0</v>
+      <c r="P48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R48" s="3">
         <v>0</v>
@@ -2762,8 +2978,14 @@
       <c r="T48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U48" s="3">
+        <v>0</v>
+      </c>
+      <c r="V48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2818,8 +3040,14 @@
       <c r="T49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3">
+        <v>0</v>
+      </c>
+      <c r="V49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +3102,14 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,8 +3164,14 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2986,8 +3226,14 @@
       <c r="T52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U52" s="3">
+        <v>0</v>
+      </c>
+      <c r="V52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,8 +3288,14 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -3057,14 +3309,14 @@
         <v>0</v>
       </c>
       <c r="G54" s="3">
+        <v>0</v>
+      </c>
+      <c r="H54" s="3">
+        <v>0</v>
+      </c>
+      <c r="I54" s="3">
         <v>100</v>
       </c>
-      <c r="H54" s="3">
-        <v>0</v>
-      </c>
-      <c r="I54" s="3">
-        <v>0</v>
-      </c>
       <c r="J54" s="3">
         <v>0</v>
       </c>
@@ -3098,8 +3350,14 @@
       <c r="T54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U54" s="3">
+        <v>0</v>
+      </c>
+      <c r="V54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3378,10 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,13 +3402,15 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E57" s="3">
         <v>0</v>
@@ -3195,40 +3457,46 @@
       <c r="S57" s="3">
         <v>0</v>
       </c>
-      <c r="T57" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="T57" s="3">
+        <v>0</v>
+      </c>
+      <c r="U57" s="3">
+        <v>0</v>
+      </c>
+      <c r="V57" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>300</v>
+      </c>
+      <c r="E58" s="3">
         <v>200</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
+        <v>200</v>
+      </c>
+      <c r="G58" s="3">
         <v>100</v>
       </c>
-      <c r="F58" s="3">
-        <v>0</v>
-      </c>
-      <c r="G58" s="3">
-        <v>0</v>
-      </c>
       <c r="H58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J58" s="3">
         <v>100</v>
       </c>
       <c r="K58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M58" s="3">
         <v>0</v>
@@ -3236,11 +3504,11 @@
       <c r="N58" s="3">
         <v>0</v>
       </c>
-      <c r="O58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P58" s="3" t="s">
-        <v>4</v>
+      <c r="O58" s="3">
+        <v>0</v>
+      </c>
+      <c r="P58" s="3">
+        <v>0</v>
       </c>
       <c r="Q58" s="3" t="s">
         <v>4</v>
@@ -3254,8 +3522,14 @@
       <c r="T58" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3263,22 +3537,22 @@
         <v>200</v>
       </c>
       <c r="E59" s="3">
+        <v>200</v>
+      </c>
+      <c r="F59" s="3">
+        <v>200</v>
+      </c>
+      <c r="G59" s="3">
         <v>300</v>
       </c>
-      <c r="F59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H59" s="3">
+      <c r="H59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J59" s="3">
         <v>100</v>
-      </c>
-      <c r="I59" s="3">
-        <v>200</v>
-      </c>
-      <c r="J59" s="3">
-        <v>200</v>
       </c>
       <c r="K59" s="3">
         <v>200</v>
@@ -3290,10 +3564,10 @@
         <v>200</v>
       </c>
       <c r="N59" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="O59" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="P59" s="3">
         <v>100</v>
@@ -3310,37 +3584,43 @@
       <c r="T59" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U59" s="3">
+        <v>100</v>
+      </c>
+      <c r="V59" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>600</v>
+      </c>
+      <c r="E60" s="3">
+        <v>500</v>
+      </c>
+      <c r="F60" s="3">
         <v>400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>400</v>
       </c>
-      <c r="F60" s="3">
-        <v>0</v>
-      </c>
-      <c r="G60" s="3">
-        <v>0</v>
-      </c>
       <c r="H60" s="3">
+        <v>0</v>
+      </c>
+      <c r="I60" s="3">
+        <v>0</v>
+      </c>
+      <c r="J60" s="3">
         <v>200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>300</v>
-      </c>
-      <c r="K60" s="3">
-        <v>200</v>
-      </c>
-      <c r="L60" s="3">
-        <v>200</v>
       </c>
       <c r="M60" s="3">
         <v>200</v>
@@ -3352,10 +3632,10 @@
         <v>200</v>
       </c>
       <c r="P60" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Q60" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="R60" s="3">
         <v>100</v>
@@ -3366,8 +3646,14 @@
       <c r="T60" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U60" s="3">
+        <v>100</v>
+      </c>
+      <c r="V60" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3378,14 +3664,14 @@
         <v>0</v>
       </c>
       <c r="F61" s="3">
+        <v>0</v>
+      </c>
+      <c r="G61" s="3">
+        <v>0</v>
+      </c>
+      <c r="H61" s="3">
         <v>100</v>
       </c>
-      <c r="G61" s="3">
-        <v>0</v>
-      </c>
-      <c r="H61" s="3">
-        <v>0</v>
-      </c>
       <c r="I61" s="3">
         <v>0</v>
       </c>
@@ -3422,32 +3708,38 @@
       <c r="T61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="3">
-        <v>0</v>
+      <c r="D62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E62" s="3">
         <v>0</v>
       </c>
       <c r="F62" s="3">
+        <v>0</v>
+      </c>
+      <c r="G62" s="3">
+        <v>0</v>
+      </c>
+      <c r="H62" s="3">
         <v>300</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>300</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>200</v>
       </c>
-      <c r="I62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J62" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K62" s="3" t="s">
         <v>4</v>
       </c>
@@ -3460,11 +3752,11 @@
       <c r="N62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O62" s="3">
-        <v>0</v>
-      </c>
-      <c r="P62" s="3">
-        <v>0</v>
+      <c r="O62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q62" s="3">
         <v>0</v>
@@ -3478,8 +3770,14 @@
       <c r="T62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U62" s="3">
+        <v>0</v>
+      </c>
+      <c r="V62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +3832,14 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3590,8 +3894,14 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,19 +3956,25 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>600</v>
+      </c>
+      <c r="E66" s="3">
+        <v>500</v>
+      </c>
+      <c r="F66" s="3">
         <v>400</v>
-      </c>
-      <c r="E66" s="3">
-        <v>400</v>
-      </c>
-      <c r="F66" s="3">
-        <v>500</v>
       </c>
       <c r="G66" s="3">
         <v>400</v>
@@ -3670,13 +3986,13 @@
         <v>400</v>
       </c>
       <c r="J66" s="3">
+        <v>500</v>
+      </c>
+      <c r="K66" s="3">
+        <v>400</v>
+      </c>
+      <c r="L66" s="3">
         <v>300</v>
-      </c>
-      <c r="K66" s="3">
-        <v>200</v>
-      </c>
-      <c r="L66" s="3">
-        <v>200</v>
       </c>
       <c r="M66" s="3">
         <v>200</v>
@@ -3688,10 +4004,10 @@
         <v>200</v>
       </c>
       <c r="P66" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Q66" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="R66" s="3">
         <v>100</v>
@@ -3702,8 +4018,14 @@
       <c r="T66" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U66" s="3">
+        <v>100</v>
+      </c>
+      <c r="V66" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +4046,10 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +4104,14 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,8 +4166,14 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3892,8 +4228,14 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,40 +4290,46 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="F72" s="3">
         <v>-900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-300</v>
-      </c>
-      <c r="L72" s="3">
-        <v>-200</v>
-      </c>
-      <c r="M72" s="3">
-        <v>-200</v>
       </c>
       <c r="N72" s="3">
         <v>-200</v>
@@ -3999,13 +4347,19 @@
         <v>-200</v>
       </c>
       <c r="S72" s="3">
+        <v>-200</v>
+      </c>
+      <c r="T72" s="3">
+        <v>-200</v>
+      </c>
+      <c r="U72" s="3">
         <v>-100</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4414,14 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4476,14 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,37 +4538,43 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-400</v>
+        <v>-600</v>
       </c>
       <c r="E76" s="3">
-        <v>-400</v>
+        <v>-500</v>
       </c>
       <c r="F76" s="3">
         <v>-400</v>
       </c>
       <c r="G76" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="H76" s="3">
-        <v>-500</v>
+        <v>-400</v>
       </c>
       <c r="I76" s="3">
         <v>-300</v>
       </c>
       <c r="J76" s="3">
+        <v>-500</v>
+      </c>
+      <c r="K76" s="3">
         <v>-300</v>
       </c>
-      <c r="K76" s="3">
-        <v>-200</v>
-      </c>
       <c r="L76" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="M76" s="3">
         <v>-200</v>
@@ -4211,10 +4583,10 @@
         <v>-200</v>
       </c>
       <c r="O76" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="P76" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="Q76" s="3">
         <v>-100</v>
@@ -4228,8 +4600,14 @@
       <c r="T76" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U76" s="3">
+        <v>-100</v>
+      </c>
+      <c r="V76" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,77 +4662,89 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>0</v>
+      </c>
+      <c r="E81" s="3">
         <v>-100</v>
-      </c>
-      <c r="E81" s="3">
-        <v>0</v>
       </c>
       <c r="F81" s="3">
         <v>-100</v>
@@ -4363,20 +4753,20 @@
         <v>0</v>
       </c>
       <c r="H81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I81" s="3">
+        <v>0</v>
+      </c>
+      <c r="J81" s="3">
         <v>-300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-100</v>
       </c>
-      <c r="K81" s="3">
-        <v>0</v>
-      </c>
-      <c r="L81" s="3">
-        <v>0</v>
-      </c>
       <c r="M81" s="3">
         <v>0</v>
       </c>
@@ -4401,8 +4791,14 @@
       <c r="T81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U81" s="3">
+        <v>0</v>
+      </c>
+      <c r="V81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,8 +4819,10 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4443,11 +4841,11 @@
       <c r="H83" s="3">
         <v>0</v>
       </c>
-      <c r="I83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J83" s="3" t="s">
-        <v>4</v>
+      <c r="I83" s="3">
+        <v>0</v>
+      </c>
+      <c r="J83" s="3">
+        <v>0</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>4</v>
@@ -4461,11 +4859,11 @@
       <c r="N83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O83" s="3">
-        <v>0</v>
-      </c>
-      <c r="P83" s="3">
-        <v>0</v>
+      <c r="O83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q83" s="3">
         <v>0</v>
@@ -4479,8 +4877,14 @@
       <c r="T83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="3">
+        <v>0</v>
+      </c>
+      <c r="V83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +4939,14 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +5001,14 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +5063,14 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +5125,14 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,8 +5187,14 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4771,10 +5205,10 @@
         <v>0</v>
       </c>
       <c r="F89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H89" s="3">
         <v>-100</v>
@@ -4783,10 +5217,10 @@
         <v>-100</v>
       </c>
       <c r="J89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L89" s="3">
         <v>0</v>
@@ -4815,8 +5249,14 @@
       <c r="T89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U89" s="3">
+        <v>0</v>
+      </c>
+      <c r="V89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,8 +5277,10 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4893,8 +5335,14 @@
       <c r="T91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U91" s="3">
+        <v>0</v>
+      </c>
+      <c r="V91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5397,14 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,8 +5459,14 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5061,8 +5521,14 @@
       <c r="T94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U94" s="3">
+        <v>0</v>
+      </c>
+      <c r="V94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,8 +5549,10 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5139,8 +5607,14 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +5669,14 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +5731,14 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,13 +5793,19 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3">
-        <v>0</v>
+      <c r="D100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E100" s="3">
         <v>0</v>
@@ -5322,20 +5814,20 @@
         <v>0</v>
       </c>
       <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>100</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
       <c r="L100" s="3">
         <v>0</v>
       </c>
@@ -5363,8 +5855,14 @@
       <c r="T100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U100" s="3">
+        <v>0</v>
+      </c>
+      <c r="V100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5419,8 +5917,14 @@
       <c r="T101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5431,17 +5935,17 @@
         <v>0</v>
       </c>
       <c r="F102" s="3">
+        <v>0</v>
+      </c>
+      <c r="G102" s="3">
+        <v>0</v>
+      </c>
+      <c r="H102" s="3">
         <v>-100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>100</v>
       </c>
-      <c r="H102" s="3">
-        <v>0</v>
-      </c>
-      <c r="I102" s="3">
-        <v>0</v>
-      </c>
       <c r="J102" s="3">
         <v>0</v>
       </c>
@@ -5473,6 +5977,12 @@
         <v>0</v>
       </c>
       <c r="T102" s="3">
+        <v>0</v>
+      </c>
+      <c r="U102" s="3">
+        <v>0</v>
+      </c>
+      <c r="V102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PLYN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PLYN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="92">
   <si>
     <t>PLYN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,97 +665,104 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43373</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43281</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43190</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -816,8 +823,14 @@
       <c r="V8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W8" s="3">
+        <v>0</v>
+      </c>
+      <c r="X8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -878,8 +891,14 @@
       <c r="V9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -940,8 +959,14 @@
       <c r="V10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -964,8 +989,10 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1026,8 +1053,14 @@
       <c r="V12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1088,34 +1121,40 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I14" s="3">
-        <v>-100</v>
+      <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>4</v>
+      <c r="K14" s="3">
+        <v>-100</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>4</v>
@@ -1126,11 +1165,11 @@
       <c r="N14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
-      <c r="P14" s="3">
-        <v>0</v>
+      <c r="O14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q14" s="3">
         <v>0</v>
@@ -1150,8 +1189,14 @@
       <c r="V14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1212,8 +1257,14 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1233,8 +1284,10 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1245,32 +1298,32 @@
         <v>100</v>
       </c>
       <c r="F17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G17" s="3">
         <v>100</v>
       </c>
       <c r="H17" s="3">
+        <v>0</v>
+      </c>
+      <c r="I17" s="3">
         <v>100</v>
       </c>
-      <c r="I17" s="3">
-        <v>-100</v>
-      </c>
       <c r="J17" s="3">
+        <v>100</v>
+      </c>
+      <c r="K17" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L17" s="3">
         <v>200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>100</v>
       </c>
-      <c r="M17" s="3">
-        <v>0</v>
-      </c>
-      <c r="N17" s="3">
-        <v>0</v>
-      </c>
       <c r="O17" s="3">
         <v>0</v>
       </c>
@@ -1295,8 +1348,14 @@
       <c r="V17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W17" s="3">
+        <v>0</v>
+      </c>
+      <c r="X17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1307,31 +1366,31 @@
         <v>-100</v>
       </c>
       <c r="F18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G18" s="3">
         <v>-100</v>
       </c>
       <c r="H18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K18" s="3">
         <v>100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-200</v>
       </c>
-      <c r="K18" s="3">
-        <v>-100</v>
-      </c>
-      <c r="L18" s="3">
-        <v>-100</v>
-      </c>
       <c r="M18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O18" s="3">
         <v>0</v>
@@ -1357,8 +1416,14 @@
       <c r="V18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W18" s="3">
+        <v>0</v>
+      </c>
+      <c r="X18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1381,8 +1446,10 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1390,7 +1457,7 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F20" s="3">
         <v>0</v>
@@ -1399,19 +1466,19 @@
         <v>0</v>
       </c>
       <c r="H20" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I20" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J20" s="3">
         <v>-100</v>
       </c>
       <c r="K20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M20" s="3">
         <v>0</v>
@@ -1443,8 +1510,14 @@
       <c r="V20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W20" s="3">
+        <v>0</v>
+      </c>
+      <c r="X20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1455,10 +1528,10 @@
         <v>-100</v>
       </c>
       <c r="F21" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G21" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H21" s="3">
         <v>-100</v>
@@ -1467,14 +1540,14 @@
         <v>0</v>
       </c>
       <c r="J21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K21" s="3">
+        <v>0</v>
+      </c>
+      <c r="L21" s="3">
         <v>-200</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1505,8 +1578,14 @@
       <c r="V21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1549,11 +1628,11 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-      <c r="Q22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R22" s="3" t="s">
-        <v>4</v>
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+      <c r="R22" s="3">
+        <v>0</v>
       </c>
       <c r="S22" s="3" t="s">
         <v>4</v>
@@ -1567,22 +1646,28 @@
       <c r="V22" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X22" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E23" s="3">
         <v>-100</v>
       </c>
       <c r="F23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H23" s="3">
         <v>-100</v>
@@ -1591,19 +1676,19 @@
         <v>0</v>
       </c>
       <c r="J23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K23" s="3">
+        <v>0</v>
+      </c>
+      <c r="L23" s="3">
         <v>-300</v>
       </c>
-      <c r="K23" s="3">
-        <v>-100</v>
-      </c>
-      <c r="L23" s="3">
-        <v>-100</v>
-      </c>
       <c r="M23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O23" s="3">
         <v>0</v>
@@ -1629,8 +1714,14 @@
       <c r="V23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W23" s="3">
+        <v>0</v>
+      </c>
+      <c r="X23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1691,8 +1782,14 @@
       <c r="V24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W24" s="3">
+        <v>0</v>
+      </c>
+      <c r="X24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1753,22 +1850,28 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E26" s="3">
         <v>-100</v>
       </c>
       <c r="F26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H26" s="3">
         <v>-100</v>
@@ -1777,19 +1880,19 @@
         <v>0</v>
       </c>
       <c r="J26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K26" s="3">
+        <v>0</v>
+      </c>
+      <c r="L26" s="3">
         <v>-300</v>
       </c>
-      <c r="K26" s="3">
-        <v>-100</v>
-      </c>
-      <c r="L26" s="3">
-        <v>-100</v>
-      </c>
       <c r="M26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O26" s="3">
         <v>0</v>
@@ -1815,22 +1918,28 @@
       <c r="V26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W26" s="3">
+        <v>0</v>
+      </c>
+      <c r="X26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E27" s="3">
         <v>-100</v>
       </c>
       <c r="F27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H27" s="3">
         <v>-100</v>
@@ -1839,19 +1948,19 @@
         <v>0</v>
       </c>
       <c r="J27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K27" s="3">
+        <v>0</v>
+      </c>
+      <c r="L27" s="3">
         <v>-300</v>
       </c>
-      <c r="K27" s="3">
-        <v>-100</v>
-      </c>
-      <c r="L27" s="3">
-        <v>-100</v>
-      </c>
       <c r="M27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O27" s="3">
         <v>0</v>
@@ -1877,8 +1986,14 @@
       <c r="V27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W27" s="3">
+        <v>0</v>
+      </c>
+      <c r="X27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1939,8 +2054,14 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2001,8 +2122,14 @@
       <c r="V29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2063,8 +2190,14 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2125,8 +2258,14 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2134,7 +2273,7 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F32" s="3">
         <v>0</v>
@@ -2143,19 +2282,19 @@
         <v>0</v>
       </c>
       <c r="H32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J32" s="3">
         <v>100</v>
       </c>
       <c r="K32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M32" s="3">
         <v>0</v>
@@ -2187,22 +2326,28 @@
       <c r="V32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W32" s="3">
+        <v>0</v>
+      </c>
+      <c r="X32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E33" s="3">
         <v>-100</v>
       </c>
       <c r="F33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H33" s="3">
         <v>-100</v>
@@ -2211,19 +2356,19 @@
         <v>0</v>
       </c>
       <c r="J33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K33" s="3">
+        <v>0</v>
+      </c>
+      <c r="L33" s="3">
         <v>-300</v>
       </c>
-      <c r="K33" s="3">
-        <v>-100</v>
-      </c>
-      <c r="L33" s="3">
-        <v>-100</v>
-      </c>
       <c r="M33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O33" s="3">
         <v>0</v>
@@ -2249,8 +2394,14 @@
       <c r="V33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W33" s="3">
+        <v>0</v>
+      </c>
+      <c r="X33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2311,22 +2462,28 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E35" s="3">
         <v>-100</v>
       </c>
       <c r="F35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H35" s="3">
         <v>-100</v>
@@ -2335,19 +2492,19 @@
         <v>0</v>
       </c>
       <c r="J35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K35" s="3">
+        <v>0</v>
+      </c>
+      <c r="L35" s="3">
         <v>-300</v>
       </c>
-      <c r="K35" s="3">
-        <v>-100</v>
-      </c>
-      <c r="L35" s="3">
-        <v>-100</v>
-      </c>
       <c r="M35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O35" s="3">
         <v>0</v>
@@ -2373,75 +2530,87 @@
       <c r="V35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W35" s="3">
+        <v>0</v>
+      </c>
+      <c r="X35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43373</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43281</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43190</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2464,8 +2633,10 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2488,8 +2659,10 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2509,14 +2682,14 @@
         <v>0</v>
       </c>
       <c r="I41" s="3">
+        <v>0</v>
+      </c>
+      <c r="J41" s="3">
+        <v>0</v>
+      </c>
+      <c r="K41" s="3">
         <v>100</v>
       </c>
-      <c r="J41" s="3">
-        <v>0</v>
-      </c>
-      <c r="K41" s="3">
-        <v>0</v>
-      </c>
       <c r="L41" s="3">
         <v>0</v>
       </c>
@@ -2550,8 +2723,14 @@
       <c r="V41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W41" s="3">
+        <v>0</v>
+      </c>
+      <c r="X41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2612,8 +2791,14 @@
       <c r="V42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2674,8 +2859,14 @@
       <c r="V43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W43" s="3">
+        <v>0</v>
+      </c>
+      <c r="X43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2736,8 +2927,14 @@
       <c r="V44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W44" s="3">
+        <v>0</v>
+      </c>
+      <c r="X44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2747,11 +2944,11 @@
       <c r="E45" s="3">
         <v>0</v>
       </c>
-      <c r="F45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G45" s="3" t="s">
-        <v>4</v>
+      <c r="F45" s="3">
+        <v>0</v>
+      </c>
+      <c r="G45" s="3">
+        <v>0</v>
       </c>
       <c r="H45" s="3" t="s">
         <v>4</v>
@@ -2765,14 +2962,14 @@
       <c r="K45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L45" s="3">
-        <v>0</v>
+      <c r="L45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N45" s="3" t="s">
-        <v>4</v>
+      <c r="N45" s="3">
+        <v>0</v>
       </c>
       <c r="O45" s="3" t="s">
         <v>4</v>
@@ -2783,11 +2980,11 @@
       <c r="Q45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R45" s="3">
-        <v>0</v>
-      </c>
-      <c r="S45" s="3">
-        <v>0</v>
+      <c r="R45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T45" s="3">
         <v>0</v>
@@ -2798,8 +2995,14 @@
       <c r="V45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W45" s="3">
+        <v>0</v>
+      </c>
+      <c r="X45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2819,14 +3022,14 @@
         <v>0</v>
       </c>
       <c r="I46" s="3">
+        <v>0</v>
+      </c>
+      <c r="J46" s="3">
+        <v>0</v>
+      </c>
+      <c r="K46" s="3">
         <v>100</v>
       </c>
-      <c r="J46" s="3">
-        <v>0</v>
-      </c>
-      <c r="K46" s="3">
-        <v>0</v>
-      </c>
       <c r="L46" s="3">
         <v>0</v>
       </c>
@@ -2860,8 +3063,14 @@
       <c r="V46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W46" s="3">
+        <v>0</v>
+      </c>
+      <c r="X46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2922,8 +3131,14 @@
       <c r="V47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+      <c r="X47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2951,11 +3166,11 @@
       <c r="K48" s="3">
         <v>0</v>
       </c>
-      <c r="L48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M48" s="3" t="s">
-        <v>4</v>
+      <c r="L48" s="3">
+        <v>0</v>
+      </c>
+      <c r="M48" s="3">
+        <v>0</v>
       </c>
       <c r="N48" s="3" t="s">
         <v>4</v>
@@ -2969,11 +3184,11 @@
       <c r="Q48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R48" s="3">
-        <v>0</v>
-      </c>
-      <c r="S48" s="3">
-        <v>0</v>
+      <c r="R48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T48" s="3">
         <v>0</v>
@@ -2984,8 +3199,14 @@
       <c r="V48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W48" s="3">
+        <v>0</v>
+      </c>
+      <c r="X48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3046,8 +3267,14 @@
       <c r="V49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W49" s="3">
+        <v>0</v>
+      </c>
+      <c r="X49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3108,8 +3335,14 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3170,8 +3403,14 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3232,8 +3471,14 @@
       <c r="V52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W52" s="3">
+        <v>0</v>
+      </c>
+      <c r="X52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3294,8 +3539,14 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -3315,14 +3566,14 @@
         <v>0</v>
       </c>
       <c r="I54" s="3">
+        <v>0</v>
+      </c>
+      <c r="J54" s="3">
+        <v>0</v>
+      </c>
+      <c r="K54" s="3">
         <v>100</v>
       </c>
-      <c r="J54" s="3">
-        <v>0</v>
-      </c>
-      <c r="K54" s="3">
-        <v>0</v>
-      </c>
       <c r="L54" s="3">
         <v>0</v>
       </c>
@@ -3356,8 +3607,14 @@
       <c r="V54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W54" s="3">
+        <v>0</v>
+      </c>
+      <c r="X54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3380,8 +3637,10 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3404,8 +3663,10 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3413,10 +3674,10 @@
         <v>100</v>
       </c>
       <c r="E57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G57" s="3">
         <v>0</v>
@@ -3463,11 +3724,17 @@
       <c r="U57" s="3">
         <v>0</v>
       </c>
-      <c r="V57" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="V57" s="3">
+        <v>0</v>
+      </c>
+      <c r="W57" s="3">
+        <v>0</v>
+      </c>
+      <c r="X57" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3475,34 +3742,34 @@
         <v>300</v>
       </c>
       <c r="E58" s="3">
+        <v>300</v>
+      </c>
+      <c r="F58" s="3">
+        <v>300</v>
+      </c>
+      <c r="G58" s="3">
         <v>200</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>200</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>100</v>
       </c>
-      <c r="H58" s="3">
-        <v>0</v>
-      </c>
-      <c r="I58" s="3">
-        <v>0</v>
-      </c>
       <c r="J58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L58" s="3">
         <v>100</v>
       </c>
       <c r="M58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O58" s="3">
         <v>0</v>
@@ -3510,11 +3777,11 @@
       <c r="P58" s="3">
         <v>0</v>
       </c>
-      <c r="Q58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R58" s="3" t="s">
-        <v>4</v>
+      <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+      <c r="R58" s="3">
+        <v>0</v>
       </c>
       <c r="S58" s="3" t="s">
         <v>4</v>
@@ -3528,37 +3795,43 @@
       <c r="V58" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="E59" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="F59" s="3">
         <v>200</v>
       </c>
       <c r="G59" s="3">
+        <v>200</v>
+      </c>
+      <c r="H59" s="3">
+        <v>200</v>
+      </c>
+      <c r="I59" s="3">
         <v>300</v>
       </c>
-      <c r="H59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J59" s="3">
+      <c r="J59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L59" s="3">
         <v>100</v>
-      </c>
-      <c r="K59" s="3">
-        <v>200</v>
-      </c>
-      <c r="L59" s="3">
-        <v>200</v>
       </c>
       <c r="M59" s="3">
         <v>200</v>
@@ -3570,10 +3843,10 @@
         <v>200</v>
       </c>
       <c r="P59" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Q59" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="R59" s="3">
         <v>100</v>
@@ -3590,43 +3863,49 @@
       <c r="V59" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W59" s="3">
+        <v>100</v>
+      </c>
+      <c r="X59" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>800</v>
+      </c>
+      <c r="E60" s="3">
+        <v>700</v>
+      </c>
+      <c r="F60" s="3">
         <v>600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>400</v>
       </c>
-      <c r="H60" s="3">
-        <v>0</v>
-      </c>
-      <c r="I60" s="3">
-        <v>0</v>
-      </c>
       <c r="J60" s="3">
+        <v>0</v>
+      </c>
+      <c r="K60" s="3">
+        <v>0</v>
+      </c>
+      <c r="L60" s="3">
         <v>200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>300</v>
-      </c>
-      <c r="M60" s="3">
-        <v>200</v>
-      </c>
-      <c r="N60" s="3">
-        <v>200</v>
       </c>
       <c r="O60" s="3">
         <v>200</v>
@@ -3638,10 +3917,10 @@
         <v>200</v>
       </c>
       <c r="R60" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="S60" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="T60" s="3">
         <v>100</v>
@@ -3652,8 +3931,14 @@
       <c r="V60" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W60" s="3">
+        <v>100</v>
+      </c>
+      <c r="X60" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3670,14 +3955,14 @@
         <v>0</v>
       </c>
       <c r="H61" s="3">
+        <v>0</v>
+      </c>
+      <c r="I61" s="3">
+        <v>0</v>
+      </c>
+      <c r="J61" s="3">
         <v>100</v>
       </c>
-      <c r="I61" s="3">
-        <v>0</v>
-      </c>
-      <c r="J61" s="3">
-        <v>0</v>
-      </c>
       <c r="K61" s="3">
         <v>0</v>
       </c>
@@ -3714,38 +3999,44 @@
       <c r="V61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+      <c r="X61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E62" s="3">
-        <v>0</v>
-      </c>
-      <c r="F62" s="3">
-        <v>0</v>
+      <c r="E62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G62" s="3">
         <v>0</v>
       </c>
       <c r="H62" s="3">
+        <v>0</v>
+      </c>
+      <c r="I62" s="3">
+        <v>0</v>
+      </c>
+      <c r="J62" s="3">
         <v>300</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>300</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>200</v>
       </c>
-      <c r="K62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L62" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M62" s="3" t="s">
         <v>4</v>
       </c>
@@ -3758,11 +4049,11 @@
       <c r="P62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q62" s="3">
-        <v>0</v>
-      </c>
-      <c r="R62" s="3">
-        <v>0</v>
+      <c r="Q62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S62" s="3">
         <v>0</v>
@@ -3776,8 +4067,14 @@
       <c r="V62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W62" s="3">
+        <v>0</v>
+      </c>
+      <c r="X62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3838,8 +4135,14 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3900,8 +4203,14 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3962,25 +4271,31 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>800</v>
+      </c>
+      <c r="E66" s="3">
+        <v>700</v>
+      </c>
+      <c r="F66" s="3">
         <v>600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>400</v>
-      </c>
-      <c r="G66" s="3">
-        <v>400</v>
-      </c>
-      <c r="H66" s="3">
-        <v>500</v>
       </c>
       <c r="I66" s="3">
         <v>400</v>
@@ -3992,13 +4307,13 @@
         <v>400</v>
       </c>
       <c r="L66" s="3">
+        <v>500</v>
+      </c>
+      <c r="M66" s="3">
+        <v>400</v>
+      </c>
+      <c r="N66" s="3">
         <v>300</v>
-      </c>
-      <c r="M66" s="3">
-        <v>200</v>
-      </c>
-      <c r="N66" s="3">
-        <v>200</v>
       </c>
       <c r="O66" s="3">
         <v>200</v>
@@ -4010,10 +4325,10 @@
         <v>200</v>
       </c>
       <c r="R66" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="S66" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="T66" s="3">
         <v>100</v>
@@ -4024,8 +4339,14 @@
       <c r="V66" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W66" s="3">
+        <v>100</v>
+      </c>
+      <c r="X66" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4048,8 +4369,10 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4110,8 +4433,14 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4172,8 +4501,14 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4234,8 +4569,14 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4296,46 +4637,52 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="F72" s="3">
         <v>-1100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-1000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-300</v>
-      </c>
-      <c r="N72" s="3">
-        <v>-200</v>
-      </c>
-      <c r="O72" s="3">
-        <v>-200</v>
       </c>
       <c r="P72" s="3">
         <v>-200</v>
@@ -4353,13 +4700,19 @@
         <v>-200</v>
       </c>
       <c r="U72" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="V72" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+        <v>-200</v>
+      </c>
+      <c r="W72" s="3">
+        <v>-100</v>
+      </c>
+      <c r="X72" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4420,8 +4773,14 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4482,8 +4841,14 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4544,43 +4909,49 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F76" s="3">
         <v>-600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>-500</v>
-      </c>
-      <c r="F76" s="3">
-        <v>-400</v>
-      </c>
-      <c r="G76" s="3">
-        <v>-400</v>
       </c>
       <c r="H76" s="3">
         <v>-400</v>
       </c>
       <c r="I76" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="J76" s="3">
-        <v>-500</v>
+        <v>-400</v>
       </c>
       <c r="K76" s="3">
         <v>-300</v>
       </c>
       <c r="L76" s="3">
+        <v>-500</v>
+      </c>
+      <c r="M76" s="3">
         <v>-300</v>
       </c>
-      <c r="M76" s="3">
-        <v>-200</v>
-      </c>
       <c r="N76" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="O76" s="3">
         <v>-200</v>
@@ -4589,10 +4960,10 @@
         <v>-200</v>
       </c>
       <c r="Q76" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="R76" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="S76" s="3">
         <v>-100</v>
@@ -4606,8 +4977,14 @@
       <c r="V76" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W76" s="3">
+        <v>-100</v>
+      </c>
+      <c r="X76" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4668,89 +5045,101 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43373</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43281</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43190</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E81" s="3">
         <v>-100</v>
       </c>
       <c r="F81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H81" s="3">
         <v>-100</v>
@@ -4759,19 +5148,19 @@
         <v>0</v>
       </c>
       <c r="J81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K81" s="3">
+        <v>0</v>
+      </c>
+      <c r="L81" s="3">
         <v>-300</v>
       </c>
-      <c r="K81" s="3">
-        <v>-100</v>
-      </c>
-      <c r="L81" s="3">
-        <v>-100</v>
-      </c>
       <c r="M81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O81" s="3">
         <v>0</v>
@@ -4797,8 +5186,14 @@
       <c r="V81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W81" s="3">
+        <v>0</v>
+      </c>
+      <c r="X81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4821,8 +5216,10 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4847,11 +5244,11 @@
       <c r="J83" s="3">
         <v>0</v>
       </c>
-      <c r="K83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L83" s="3" t="s">
-        <v>4</v>
+      <c r="K83" s="3">
+        <v>0</v>
+      </c>
+      <c r="L83" s="3">
+        <v>0</v>
       </c>
       <c r="M83" s="3" t="s">
         <v>4</v>
@@ -4865,11 +5262,11 @@
       <c r="P83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q83" s="3">
-        <v>0</v>
-      </c>
-      <c r="R83" s="3">
-        <v>0</v>
+      <c r="Q83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S83" s="3">
         <v>0</v>
@@ -4883,8 +5280,14 @@
       <c r="V83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W83" s="3">
+        <v>0</v>
+      </c>
+      <c r="X83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4945,8 +5348,14 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5007,8 +5416,14 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5069,8 +5484,14 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5131,8 +5552,14 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5193,13 +5620,19 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="E89" s="3">
         <v>0</v>
@@ -5211,10 +5644,10 @@
         <v>0</v>
       </c>
       <c r="H89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J89" s="3">
         <v>-100</v>
@@ -5223,10 +5656,10 @@
         <v>-100</v>
       </c>
       <c r="L89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N89" s="3">
         <v>0</v>
@@ -5255,8 +5688,14 @@
       <c r="V89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W89" s="3">
+        <v>0</v>
+      </c>
+      <c r="X89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5279,8 +5718,10 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5341,8 +5782,14 @@
       <c r="V91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W91" s="3">
+        <v>0</v>
+      </c>
+      <c r="X91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5403,8 +5850,14 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5465,8 +5918,14 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5527,8 +5986,14 @@
       <c r="V94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W94" s="3">
+        <v>0</v>
+      </c>
+      <c r="X94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5551,8 +6016,10 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5613,8 +6080,14 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5675,8 +6148,14 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5737,8 +6216,14 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5799,41 +6284,47 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
-      <c r="F100" s="3">
-        <v>0</v>
+      <c r="E100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G100" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>100</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
       <c r="N100" s="3">
         <v>0</v>
       </c>
@@ -5861,8 +6352,14 @@
       <c r="V100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W100" s="3">
+        <v>0</v>
+      </c>
+      <c r="X100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5923,8 +6420,14 @@
       <c r="V101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5941,17 +6444,17 @@
         <v>0</v>
       </c>
       <c r="H102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I102" s="3">
+        <v>0</v>
+      </c>
+      <c r="J102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K102" s="3">
         <v>100</v>
       </c>
-      <c r="J102" s="3">
-        <v>0</v>
-      </c>
-      <c r="K102" s="3">
-        <v>0</v>
-      </c>
       <c r="L102" s="3">
         <v>0</v>
       </c>
@@ -5983,6 +6486,12 @@
         <v>0</v>
       </c>
       <c r="V102" s="3">
+        <v>0</v>
+      </c>
+      <c r="W102" s="3">
+        <v>0</v>
+      </c>
+      <c r="X102" s="3">
         <v>0</v>
       </c>
     </row>
